--- a/recommended_trades.xlsx
+++ b/recommended_trades.xlsx
@@ -1940,13 +1940,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>122.95</v>
+        <v>120.09</v>
       </c>
       <c r="C2" s="2">
-        <v>37870141707</v>
+        <v>36666011138</v>
       </c>
       <c r="D2" s="3">
-        <v>62.08975</v>
+        <v>0.01648928320261454</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1954,13 +1954,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>18.341</v>
+        <v>18.264</v>
       </c>
       <c r="C3" s="2">
-        <v>11227960814</v>
+        <v>11193085852</v>
       </c>
       <c r="D3" s="3">
-        <v>9.262205</v>
+        <v>0.1084208289422898</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1968,13 +1968,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>155.864</v>
+        <v>158.87</v>
       </c>
       <c r="C4" s="2">
-        <v>10978583460</v>
+        <v>11022032380</v>
       </c>
       <c r="D4" s="3">
-        <v>78.71132</v>
+        <v>0.01246426650596072</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1982,13 +1982,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>124.5</v>
+        <v>126.87</v>
       </c>
       <c r="C5" s="2">
-        <v>2148740344840</v>
+        <v>2181147062367</v>
       </c>
       <c r="D5" s="3">
-        <v>62.8725</v>
+        <v>0.01560808717428848</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1996,13 +1996,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>110.64</v>
+        <v>111.561</v>
       </c>
       <c r="C6" s="2">
-        <v>197319592619</v>
+        <v>195478550438</v>
       </c>
       <c r="D6" s="3">
-        <v>55.8732</v>
+        <v>0.01774991278136607</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2010,13 +2010,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>103.09</v>
+        <v>102.61</v>
       </c>
       <c r="C7" s="2">
-        <v>20749666189</v>
+        <v>21245474704</v>
       </c>
       <c r="D7" s="3">
-        <v>52.06045</v>
+        <v>0.01929829470618829</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2024,13 +2024,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>270.03</v>
+        <v>267.9</v>
       </c>
       <c r="C8" s="2">
-        <v>12585362392</v>
+        <v>12540461040</v>
       </c>
       <c r="D8" s="3">
-        <v>136.36515</v>
+        <v>0.007391556624867414</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2038,13 +2038,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>107.98</v>
+        <v>110.97</v>
       </c>
       <c r="C9" s="2">
-        <v>191680825862</v>
+        <v>193055072867</v>
       </c>
       <c r="D9" s="3">
-        <v>54.5299</v>
+        <v>0.01784444462288889</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2052,13 +2052,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>254.29</v>
+        <v>253.6</v>
       </c>
       <c r="C10" s="2">
-        <v>169525064211</v>
+        <v>166338832745</v>
       </c>
       <c r="D10" s="3">
-        <v>128.41645</v>
+        <v>0.007808351813099291</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2066,13 +2066,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>485.44</v>
+        <v>473.2</v>
       </c>
       <c r="C11" s="2">
-        <v>233692814864</v>
+        <v>235581408883</v>
       </c>
       <c r="D11" s="3">
-        <v>245.1472</v>
+        <v>0.004184695730773415</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2080,13 +2080,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>143.61</v>
+        <v>145.3</v>
       </c>
       <c r="C12" s="2">
-        <v>53179277283</v>
+        <v>54122036310</v>
       </c>
       <c r="D12" s="3">
-        <v>72.52305000000001</v>
+        <v>0.01362834149898128</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2094,13 +2094,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>50.22</v>
+        <v>49.77</v>
       </c>
       <c r="C13" s="2">
-        <v>28412532467</v>
+        <v>28152007762</v>
       </c>
       <c r="D13" s="3">
-        <v>25.3611</v>
+        <v>0.0397869805063689</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2108,13 +2108,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>174.13</v>
+        <v>176.67</v>
       </c>
       <c r="C14" s="2">
-        <v>74824288978</v>
+        <v>76653141644</v>
       </c>
       <c r="D14" s="3">
-        <v>87.93565</v>
+        <v>0.0112084565563026</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2122,13 +2122,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>289.28</v>
+        <v>293.36</v>
       </c>
       <c r="C15" s="2">
-        <v>64221592375</v>
+        <v>62206612081</v>
       </c>
       <c r="D15" s="3">
-        <v>146.0864</v>
+        <v>0.006750061425558973</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2136,13 +2136,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>78.34</v>
+        <v>80.03</v>
       </c>
       <c r="C16" s="2">
-        <v>19648418526</v>
+        <v>19610363345</v>
       </c>
       <c r="D16" s="3">
-        <v>39.5617</v>
+        <v>0.02474319654881894</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2150,13 +2150,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>83.857</v>
+        <v>85.42</v>
       </c>
       <c r="C17" s="2">
-        <v>41501226857</v>
+        <v>41252146267</v>
       </c>
       <c r="D17" s="3">
-        <v>42.347785</v>
+        <v>0.02318190142591876</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2164,13 +2164,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>21.55</v>
+        <v>21.825</v>
       </c>
       <c r="C18" s="2">
-        <v>14072729806</v>
+        <v>14002309983</v>
       </c>
       <c r="D18" s="3">
-        <v>10.88275</v>
+        <v>0.09073072255679177</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2178,13 +2178,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>45.29</v>
+        <v>47.2</v>
       </c>
       <c r="C19" s="2">
-        <v>32902665112</v>
+        <v>32280760348</v>
       </c>
       <c r="D19" s="3">
-        <v>22.87145</v>
+        <v>0.0419533478771606</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2192,13 +2192,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>39.99</v>
+        <v>41.248</v>
       </c>
       <c r="C20" s="2">
-        <v>35654789075</v>
+        <v>35145018831</v>
       </c>
       <c r="D20" s="3">
-        <v>20.19495</v>
+        <v>0.04800712809838005</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2206,13 +2206,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>40.4</v>
+        <v>42.02</v>
       </c>
       <c r="C21" s="2">
-        <v>6551758252</v>
+        <v>6453457774</v>
       </c>
       <c r="D21" s="3">
-        <v>20.402</v>
+        <v>0.04712513136130367</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2220,13 +2220,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>136.99</v>
+        <v>138.31</v>
       </c>
       <c r="C22" s="2">
-        <v>7770443759</v>
+        <v>7935620194</v>
       </c>
       <c r="D22" s="3">
-        <v>69.17995000000001</v>
+        <v>0.01431709941292734</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2234,13 +2234,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>122.452</v>
+        <v>122</v>
       </c>
       <c r="C23" s="2">
-        <v>22984737903</v>
+        <v>23763728766</v>
       </c>
       <c r="D23" s="3">
-        <v>61.83826</v>
+        <v>0.0162311313098523</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2248,13 +2248,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>106.33</v>
+        <v>105.84</v>
       </c>
       <c r="C24" s="2">
-        <v>17263772781</v>
+        <v>16825051556</v>
       </c>
       <c r="D24" s="3">
-        <v>53.69665</v>
+        <v>0.01870935392859014</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2262,13 +2262,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>143.795</v>
+        <v>142.42</v>
       </c>
       <c r="C25" s="2">
-        <v>15132968553</v>
+        <v>15351286497</v>
       </c>
       <c r="D25" s="3">
-        <v>72.61647499999999</v>
+        <v>0.0139039321710573</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2276,13 +2276,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>528.939</v>
+        <v>516.72</v>
       </c>
       <c r="C26" s="2">
-        <v>41645006288</v>
+        <v>41509186632</v>
       </c>
       <c r="D26" s="3">
-        <v>267.114195</v>
+        <v>0.003832245741991756</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2290,13 +2290,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>50.77</v>
+        <v>52.391</v>
       </c>
       <c r="C27" s="2">
-        <v>6318174855</v>
+        <v>6423909146</v>
       </c>
       <c r="D27" s="3">
-        <v>25.63885</v>
+        <v>0.03779653031631349</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2304,13 +2304,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>105.316</v>
+        <v>106.87</v>
       </c>
       <c r="C28" s="2">
-        <v>33043101022</v>
+        <v>32563127277</v>
       </c>
       <c r="D28" s="3">
-        <v>53.18458</v>
+        <v>0.01852903546179452</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2318,13 +2318,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>112.8</v>
+        <v>112.59</v>
       </c>
       <c r="C29" s="2">
-        <v>10628506687</v>
+        <v>10367564227</v>
       </c>
       <c r="D29" s="3">
-        <v>56.964</v>
+        <v>0.0175876900239984</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2332,13 +2332,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>120.291</v>
+        <v>123</v>
       </c>
       <c r="C30" s="2">
-        <v>25829260765</v>
+        <v>26157930248</v>
       </c>
       <c r="D30" s="3">
-        <v>60.746955</v>
+        <v>0.01609917089269903</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2346,13 +2346,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>88.76000000000001</v>
+        <v>90.09</v>
       </c>
       <c r="C31" s="2">
-        <v>81736666721</v>
+        <v>82254023138</v>
       </c>
       <c r="D31" s="3">
-        <v>44.82380000000001</v>
+        <v>0.02198022000002198</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2360,13 +2360,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>12.134</v>
+        <v>12.076</v>
       </c>
       <c r="C32" s="2">
-        <v>18347201134</v>
+        <v>18688777834</v>
       </c>
       <c r="D32" s="3">
-        <v>6.12767</v>
+        <v>0.163977974478468</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2374,13 +2374,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>92.40000000000001</v>
+        <v>94.37</v>
       </c>
       <c r="C33" s="2">
-        <v>115320584855</v>
+        <v>113436222628</v>
       </c>
       <c r="D33" s="3">
-        <v>46.66200000000001</v>
+        <v>0.02098334237365667</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2388,13 +2388,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>119.92</v>
+        <v>119.45</v>
       </c>
       <c r="C34" s="2">
-        <v>28539486785</v>
+        <v>27712446990</v>
       </c>
       <c r="D34" s="3">
-        <v>60.5596</v>
+        <v>0.01657763097364571</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2402,13 +2402,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>236.8</v>
+        <v>237.448</v>
       </c>
       <c r="C35" s="2">
-        <v>133092868636</v>
+        <v>138257713370</v>
       </c>
       <c r="D35" s="3">
-        <v>119.584</v>
+        <v>0.008339501784820172</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2416,13 +2416,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>193.84</v>
+        <v>201.29</v>
       </c>
       <c r="C36" s="2">
-        <v>22767551061</v>
+        <v>22788866766</v>
       </c>
       <c r="D36" s="3">
-        <v>97.8892</v>
+        <v>0.009837537979045061</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2430,13 +2430,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>230.089</v>
+        <v>224.19</v>
       </c>
       <c r="C37" s="2">
-        <v>102639091167</v>
+        <v>98859709768</v>
       </c>
       <c r="D37" s="3">
-        <v>116.194945</v>
+        <v>0.008832677727828985</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2444,13 +2444,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>3187.08</v>
+        <v>3248.5</v>
       </c>
       <c r="C38" s="2">
-        <v>1571060870591</v>
+        <v>1607104897836</v>
       </c>
       <c r="D38" s="3">
-        <v>1609.4754</v>
+        <v>0.0006095730398035956</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2458,13 +2458,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>282.72</v>
+        <v>282.4</v>
       </c>
       <c r="C39" s="2">
-        <v>21230774399</v>
+        <v>21285938294</v>
       </c>
       <c r="D39" s="3">
-        <v>142.7736</v>
+        <v>0.00701203264802401</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2472,13 +2472,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>340.53</v>
+        <v>332.69</v>
       </c>
       <c r="C40" s="2">
-        <v>29117539778</v>
+        <v>28939887796</v>
       </c>
       <c r="D40" s="3">
-        <v>171.96765</v>
+        <v>0.00595208157684926</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2486,13 +2486,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>323.08</v>
+        <v>317.82</v>
       </c>
       <c r="C41" s="2">
-        <v>79333276348</v>
+        <v>80238581975</v>
       </c>
       <c r="D41" s="3">
-        <v>163.1554</v>
+        <v>0.00623056453276062</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2500,13 +2500,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>206.85</v>
+        <v>210.74</v>
       </c>
       <c r="C42" s="2">
-        <v>48946074843</v>
+        <v>48899297025</v>
       </c>
       <c r="D42" s="3">
-        <v>104.45925</v>
+        <v>0.009396403244765967</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2514,13 +2514,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>58.52</v>
+        <v>57.948</v>
       </c>
       <c r="C43" s="2">
-        <v>8085084656</v>
+        <v>7625473494</v>
       </c>
       <c r="D43" s="3">
-        <v>29.5526</v>
+        <v>0.0341719821184852</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2528,13 +2528,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>17.414</v>
+        <v>16.832</v>
       </c>
       <c r="C44" s="2">
-        <v>6505337379</v>
+        <v>6333115100</v>
       </c>
       <c r="D44" s="3">
-        <v>8.794070000000001</v>
+        <v>0.117644844332342</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2542,13 +2542,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>276.38</v>
+        <v>281.34</v>
       </c>
       <c r="C45" s="2">
-        <v>62091931749</v>
+        <v>60865503253</v>
       </c>
       <c r="D45" s="3">
-        <v>139.5719</v>
+        <v>0.007038451765841972</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2556,13 +2556,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>137.81</v>
+        <v>137.95</v>
       </c>
       <c r="C46" s="2">
-        <v>41649855807</v>
+        <v>40076087600</v>
       </c>
       <c r="D46" s="3">
-        <v>69.59405</v>
+        <v>0.01435446190505241</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2570,13 +2570,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>126.58</v>
+        <v>124.61</v>
       </c>
       <c r="C47" s="2">
-        <v>34240805944</v>
+        <v>34406169816</v>
       </c>
       <c r="D47" s="3">
-        <v>63.9229</v>
+        <v>0.0158911645919427</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2584,13 +2584,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>175.61</v>
+        <v>175.7</v>
       </c>
       <c r="C48" s="2">
-        <v>23430697331</v>
+        <v>24077548485</v>
       </c>
       <c r="D48" s="3">
-        <v>88.68305000000001</v>
+        <v>0.01127033591236187</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2598,13 +2598,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>98.23</v>
+        <v>99.8</v>
       </c>
       <c r="C49" s="2">
-        <v>12582742307</v>
+        <v>12850012395</v>
       </c>
       <c r="D49" s="3">
-        <v>49.60615</v>
+        <v>0.01984166352506994</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2612,13 +2612,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>84.55</v>
+        <v>83.77</v>
       </c>
       <c r="C50" s="2">
-        <v>65617015757</v>
+        <v>64267922389</v>
       </c>
       <c r="D50" s="3">
-        <v>42.69775</v>
+        <v>0.02363851044290295</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2626,13 +2626,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>166.09</v>
+        <v>166.27</v>
       </c>
       <c r="C51" s="2">
-        <v>23766435066</v>
+        <v>23616146133</v>
       </c>
       <c r="D51" s="3">
-        <v>83.87545</v>
+        <v>0.01190953280689228</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2640,13 +2640,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>430.76</v>
+        <v>414.85</v>
       </c>
       <c r="C52" s="2">
-        <v>169706241578</v>
+        <v>166629867657</v>
       </c>
       <c r="D52" s="3">
-        <v>217.5338</v>
+        <v>0.004773286777876293</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2654,13 +2654,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>158.744</v>
+        <v>155.26</v>
       </c>
       <c r="C53" s="2">
-        <v>13063195036</v>
+        <v>12898217674</v>
       </c>
       <c r="D53" s="3">
-        <v>80.16572000000001</v>
+        <v>0.012754077159616</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2668,13 +2668,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>152.7</v>
+        <v>155.753</v>
       </c>
       <c r="C54" s="2">
-        <v>27796589957</v>
+        <v>28071404721</v>
       </c>
       <c r="D54" s="3">
-        <v>77.1135</v>
+        <v>0.01271370708623256</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2682,13 +2682,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>121.87</v>
+        <v>126.709</v>
       </c>
       <c r="C55" s="2">
-        <v>101741593226</v>
+        <v>102203819238</v>
       </c>
       <c r="D55" s="3">
-        <v>61.54435</v>
+        <v>0.01562791924647799</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2696,13 +2696,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>1161.62</v>
+        <v>1162.76</v>
       </c>
       <c r="C56" s="2">
-        <v>27712353958</v>
+        <v>27448507656</v>
       </c>
       <c r="D56" s="3">
-        <v>586.6180999999999</v>
+        <v>0.001703015256632478</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2710,13 +2710,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>244.18</v>
+        <v>245.646</v>
       </c>
       <c r="C57" s="2">
-        <v>133804637797</v>
+        <v>134145747217</v>
       </c>
       <c r="D57" s="3">
-        <v>123.3109</v>
+        <v>0.008061185689170514</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2724,13 +2724,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>30.05</v>
+        <v>30.055</v>
       </c>
       <c r="C58" s="2">
-        <v>252587767915</v>
+        <v>259030472483</v>
       </c>
       <c r="D58" s="3">
-        <v>15.17525</v>
+        <v>0.06588581000838396</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2738,13 +2738,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>80.16</v>
+        <v>83.27</v>
       </c>
       <c r="C59" s="2">
-        <v>42436015152</v>
+        <v>41315862267</v>
       </c>
       <c r="D59" s="3">
-        <v>40.4808</v>
+        <v>0.02378044937915192</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2752,13 +2752,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>102.6</v>
+        <v>105.11</v>
       </c>
       <c r="C60" s="2">
-        <v>27309991405</v>
+        <v>27844171368</v>
       </c>
       <c r="D60" s="3">
-        <v>51.813</v>
+        <v>0.01883929235850043</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2766,13 +2766,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>251.9</v>
+        <v>250.95</v>
       </c>
       <c r="C61" s="2">
-        <v>71371587897</v>
+        <v>70973982523</v>
       </c>
       <c r="D61" s="3">
-        <v>127.2095</v>
+        <v>0.007890807012560192</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2780,13 +2780,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>24.52</v>
+        <v>24.82</v>
       </c>
       <c r="C62" s="2">
-        <v>12209304147</v>
+        <v>12680941890</v>
       </c>
       <c r="D62" s="3">
-        <v>12.3826</v>
+        <v>0.079782353739</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2794,13 +2794,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>80.19</v>
+        <v>77.39</v>
       </c>
       <c r="C63" s="2">
-        <v>38277636119</v>
+        <v>36945598278</v>
       </c>
       <c r="D63" s="3">
-        <v>40.49595</v>
+        <v>0.0255872595917041</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2808,13 +2808,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>249.26</v>
+        <v>248.5</v>
       </c>
       <c r="C64" s="2">
-        <v>38126644822</v>
+        <v>39210157087</v>
       </c>
       <c r="D64" s="3">
-        <v>125.8763</v>
+        <v>0.007968603701416419</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2822,13 +2822,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>562.1799999999999</v>
+        <v>553.14</v>
       </c>
       <c r="C65" s="2">
-        <v>16927983798</v>
+        <v>17272981091</v>
       </c>
       <c r="D65" s="3">
-        <v>283.9009</v>
+        <v>0.003579921936222259</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2836,13 +2836,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>40.656</v>
+        <v>41.73</v>
       </c>
       <c r="C66" s="2">
-        <v>36771960437</v>
+        <v>36824974659</v>
       </c>
       <c r="D66" s="3">
-        <v>20.53128</v>
+        <v>0.04745262448602876</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2850,13 +2850,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>2139.4</v>
+        <v>2127.87</v>
       </c>
       <c r="C67" s="2">
-        <v>91084978974</v>
+        <v>86991114288</v>
       </c>
       <c r="D67" s="3">
-        <v>1080.397</v>
+        <v>0.0009306010328647804</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2864,13 +2864,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>24.33</v>
+        <v>23.59</v>
       </c>
       <c r="C68" s="2">
-        <v>16602793906</v>
+        <v>16492678513</v>
       </c>
       <c r="D68" s="3">
-        <v>12.28665</v>
+        <v>0.0839422645104697</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2878,13 +2878,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>723.52</v>
+        <v>709.6</v>
       </c>
       <c r="C69" s="2">
-        <v>106892811508</v>
+        <v>109020169262</v>
       </c>
       <c r="D69" s="3">
-        <v>365.3776</v>
+        <v>0.002790583455188811</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2892,13 +2892,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>96.15000000000001</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="C70" s="2">
-        <v>31930856571</v>
+        <v>31798852799</v>
       </c>
       <c r="D70" s="3">
-        <v>48.55575</v>
+        <v>0.02041230821360664</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2906,13 +2906,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>63.16</v>
+        <v>62.868</v>
       </c>
       <c r="C71" s="2">
-        <v>137339306373</v>
+        <v>141747747920</v>
       </c>
       <c r="D71" s="3">
-        <v>31.8958</v>
+        <v>0.03149770980152033</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2920,13 +2920,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>152.34</v>
+        <v>151.19</v>
       </c>
       <c r="C72" s="2">
-        <v>17307535191</v>
+        <v>17555589825</v>
       </c>
       <c r="D72" s="3">
-        <v>76.93170000000001</v>
+        <v>0.0130974139810965</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2934,13 +2934,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>235.76</v>
+        <v>231.51</v>
       </c>
       <c r="C73" s="2">
-        <v>540597524694</v>
+        <v>552265010372</v>
       </c>
       <c r="D73" s="3">
-        <v>119.0588</v>
+        <v>0.008553401666459248</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2948,13 +2948,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>35.54</v>
+        <v>35.798</v>
       </c>
       <c r="C74" s="2">
-        <v>50198520276</v>
+        <v>51211993938</v>
       </c>
       <c r="D74" s="3">
-        <v>17.9477</v>
+        <v>0.05531588412207331</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2962,13 +2962,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>39.46</v>
+        <v>38.496</v>
       </c>
       <c r="C75" s="2">
-        <v>9735937933</v>
+        <v>9404557150</v>
       </c>
       <c r="D75" s="3">
-        <v>19.9273</v>
+        <v>0.05143905911788186</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2976,13 +2976,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>103.36</v>
+        <v>105.18</v>
       </c>
       <c r="C76" s="2">
-        <v>15637806654</v>
+        <v>16456122913</v>
       </c>
       <c r="D76" s="3">
-        <v>52.1968</v>
+        <v>0.0188267543240348</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2990,13 +2990,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>59.772</v>
+        <v>61.81</v>
       </c>
       <c r="C77" s="2">
-        <v>129077686458</v>
+        <v>129068972255</v>
       </c>
       <c r="D77" s="3">
-        <v>30.18486</v>
+        <v>0.03203685519822003</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3004,13 +3004,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>37.092</v>
+        <v>37.06</v>
       </c>
       <c r="C78" s="2">
-        <v>17450570426</v>
+        <v>18067604008</v>
       </c>
       <c r="D78" s="3">
-        <v>18.73146</v>
+        <v>0.05343221855914679</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3018,13 +3018,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>57.6</v>
+        <v>56.42</v>
       </c>
       <c r="C79" s="2">
-        <v>16453097704</v>
+        <v>16522426835</v>
       </c>
       <c r="D79" s="3">
-        <v>29.088</v>
+        <v>0.03509744806455122</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3032,13 +3032,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>38.19</v>
+        <v>39.13</v>
       </c>
       <c r="C80" s="2">
-        <v>33329130538</v>
+        <v>34199938607</v>
       </c>
       <c r="D80" s="3">
-        <v>19.28595</v>
+        <v>0.05060562279074828</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3046,13 +3046,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>179.84</v>
+        <v>185.17</v>
       </c>
       <c r="C81" s="2">
-        <v>100993071877</v>
+        <v>97112758419</v>
       </c>
       <c r="D81" s="3">
-        <v>90.81920000000001</v>
+        <v>0.01069394621051996</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3060,13 +3060,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>159.033</v>
+        <v>160.2</v>
       </c>
       <c r="C82" s="2">
-        <v>71226299055</v>
+        <v>71201202157</v>
       </c>
       <c r="D82" s="3">
-        <v>80.31166499999999</v>
+        <v>0.0123607866404618</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3074,13 +3074,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>91</v>
+        <v>89.14</v>
       </c>
       <c r="C83" s="2">
-        <v>9680397718</v>
+        <v>9815644870</v>
       </c>
       <c r="D83" s="3">
-        <v>45.955</v>
+        <v>0.02221447183982477</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3088,13 +3088,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>66.33</v>
+        <v>68.12</v>
       </c>
       <c r="C84" s="2">
-        <v>22960712587</v>
+        <v>22420342194</v>
       </c>
       <c r="D84" s="3">
-        <v>33.49665</v>
+        <v>0.02906926041987639</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3102,13 +3102,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>159.89</v>
+        <v>160.49</v>
       </c>
       <c r="C85" s="2">
-        <v>71190551577</v>
+        <v>68883491841</v>
       </c>
       <c r="D85" s="3">
-        <v>80.74445</v>
+        <v>0.0123384511172159</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3116,13 +3116,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>23.35</v>
+        <v>23.143</v>
       </c>
       <c r="C86" s="2">
-        <v>17260740792</v>
+        <v>16224620552</v>
       </c>
       <c r="D86" s="3">
-        <v>11.79175</v>
+        <v>0.08556358379648188</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3130,13 +3130,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>116.9</v>
+        <v>120.37</v>
       </c>
       <c r="C87" s="2">
-        <v>33489332440</v>
+        <v>33913328897</v>
       </c>
       <c r="D87" s="3">
-        <v>59.0345</v>
+        <v>0.01645092647505176</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3144,13 +3144,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>134.64</v>
+        <v>131.89</v>
       </c>
       <c r="C88" s="2">
-        <v>19454487723</v>
+        <v>19584498341</v>
       </c>
       <c r="D88" s="3">
-        <v>67.99319999999999</v>
+        <v>0.01501401182653712</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3158,13 +3158,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>131.837</v>
+        <v>136.09</v>
       </c>
       <c r="C89" s="2">
-        <v>15696848490</v>
+        <v>15512647062</v>
       </c>
       <c r="D89" s="3">
-        <v>66.57768499999999</v>
+        <v>0.01455065045045176</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3172,13 +3172,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>75.462</v>
+        <v>75.5</v>
       </c>
       <c r="C90" s="2">
-        <v>22958261461</v>
+        <v>23462507022</v>
       </c>
       <c r="D90" s="3">
-        <v>38.10831</v>
+        <v>0.02622778834174808</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3186,13 +3186,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>39.93</v>
+        <v>39.63</v>
       </c>
       <c r="C91" s="2">
-        <v>8617718498</v>
+        <v>8528662575</v>
       </c>
       <c r="D91" s="3">
-        <v>20.16465</v>
+        <v>0.04996714660110977</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3200,13 +3200,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>36.91</v>
+        <v>36.74</v>
       </c>
       <c r="C92" s="2">
-        <v>15679704377</v>
+        <v>15922961987</v>
       </c>
       <c r="D92" s="3">
-        <v>18.63955</v>
+        <v>0.05389760532939521</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3214,13 +3214,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>87.11</v>
+        <v>88.3</v>
       </c>
       <c r="C93" s="2">
-        <v>21747868773</v>
+        <v>21360315199</v>
       </c>
       <c r="D93" s="3">
-        <v>43.99055</v>
+        <v>0.02242579863875402</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3228,13 +3228,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>95.34</v>
+        <v>93.78</v>
       </c>
       <c r="C94" s="2">
-        <v>12955495395</v>
+        <v>12864086149</v>
       </c>
       <c r="D94" s="3">
-        <v>48.1467</v>
+        <v>0.02111535529752591</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3242,13 +3242,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>663.1</v>
+        <v>660.96</v>
       </c>
       <c r="C95" s="2">
-        <v>130268866821</v>
+        <v>132867900806</v>
       </c>
       <c r="D95" s="3">
-        <v>334.8655</v>
+        <v>0.00299594229575463</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3256,13 +3256,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>226.27</v>
+        <v>213.686</v>
       </c>
       <c r="C96" s="2">
-        <v>78614274572</v>
+        <v>78574358657</v>
       </c>
       <c r="D96" s="3">
-        <v>114.26635</v>
+        <v>0.009266858941633893</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3270,13 +3270,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>82.08</v>
+        <v>83.816</v>
       </c>
       <c r="C97" s="2">
-        <v>13179934418</v>
+        <v>13668254558</v>
       </c>
       <c r="D97" s="3">
-        <v>41.4504</v>
+        <v>0.02362553712658657</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3284,13 +3284,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>85.59</v>
+        <v>88.88</v>
       </c>
       <c r="C98" s="2">
-        <v>75943797006</v>
+        <v>75779694907</v>
       </c>
       <c r="D98" s="3">
-        <v>43.22295</v>
+        <v>0.02227945566833911</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3298,13 +3298,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>203.09</v>
+        <v>202.71</v>
       </c>
       <c r="C99" s="2">
-        <v>26001332666</v>
+        <v>26037046377</v>
       </c>
       <c r="D99" s="3">
-        <v>102.56045</v>
+        <v>0.009768625227181591</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3312,13 +3312,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>53.24</v>
+        <v>54.38</v>
       </c>
       <c r="C100" s="2">
-        <v>7571674165</v>
+        <v>7701340618</v>
       </c>
       <c r="D100" s="3">
-        <v>26.8862</v>
+        <v>0.03641408642519272</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3326,13 +3326,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>52.87</v>
+        <v>51.061</v>
       </c>
       <c r="C101" s="2">
-        <v>231917060363</v>
+        <v>232095433631</v>
       </c>
       <c r="D101" s="3">
-        <v>26.69935</v>
+        <v>0.0387810270030352</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3340,13 +3340,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>184.69</v>
+        <v>190.707</v>
       </c>
       <c r="C102" s="2">
-        <v>66254110157</v>
+        <v>68039859642</v>
       </c>
       <c r="D102" s="3">
-        <v>93.26845</v>
+        <v>0.01038345744939609</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3354,13 +3354,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>1351.36</v>
+        <v>1345.39</v>
       </c>
       <c r="C103" s="2">
-        <v>37509432406</v>
+        <v>37355309913</v>
       </c>
       <c r="D103" s="3">
-        <v>682.4367999999999</v>
+        <v>0.001471839407013565</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3368,13 +3368,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>227.6</v>
+        <v>224.44</v>
       </c>
       <c r="C104" s="2">
-        <v>33280236034</v>
+        <v>33264590446</v>
       </c>
       <c r="D104" s="3">
-        <v>114.938</v>
+        <v>0.008822839154348512</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3382,13 +3382,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>60.3</v>
+        <v>60.6</v>
       </c>
       <c r="C105" s="2">
-        <v>17847030778</v>
+        <v>17621104203</v>
       </c>
       <c r="D105" s="3">
-        <v>30.4515</v>
+        <v>0.0326765349802307</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3396,13 +3396,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>65.23999999999999</v>
+        <v>62.54</v>
       </c>
       <c r="C106" s="2">
-        <v>37129668454</v>
+        <v>37050867539</v>
       </c>
       <c r="D106" s="3">
-        <v>32.9462</v>
+        <v>0.03166290405823442</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3410,13 +3410,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>22.62</v>
+        <v>22.989</v>
       </c>
       <c r="C107" s="2">
-        <v>11953089352</v>
+        <v>12493940212</v>
       </c>
       <c r="D107" s="3">
-        <v>11.4231</v>
+        <v>0.08613676192100483</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3424,13 +3424,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>98.7</v>
+        <v>97.62</v>
       </c>
       <c r="C108" s="2">
-        <v>43807279080</v>
+        <v>44401552984</v>
       </c>
       <c r="D108" s="3">
-        <v>49.8435</v>
+        <v>0.02028475742472834</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3438,13 +3438,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>17.9</v>
+        <v>17.629</v>
       </c>
       <c r="C109" s="2">
-        <v>7198247501</v>
+        <v>7348692644</v>
       </c>
       <c r="D109" s="3">
-        <v>9.039499999999999</v>
+        <v>0.1123261682342719</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3452,13 +3452,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>360.96</v>
+        <v>353.4</v>
       </c>
       <c r="C110" s="2">
-        <v>18937098408</v>
+        <v>18498918011</v>
       </c>
       <c r="D110" s="3">
-        <v>182.2848</v>
+        <v>0.005603276796270459</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3466,13 +3466,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>44.34</v>
+        <v>44.41</v>
       </c>
       <c r="C111" s="2">
-        <v>49167527585</v>
+        <v>49085567504</v>
       </c>
       <c r="D111" s="3">
-        <v>22.3917</v>
+        <v>0.04458901192979015</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3480,13 +3480,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>388.88</v>
+        <v>379.3</v>
       </c>
       <c r="C112" s="2">
-        <v>171973993392</v>
+        <v>165403598179</v>
       </c>
       <c r="D112" s="3">
-        <v>196.3844</v>
+        <v>0.00522066443396251</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3494,13 +3494,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>7.43</v>
+        <v>7.29</v>
       </c>
       <c r="C113" s="2">
-        <v>5625035960</v>
+        <v>5659006180</v>
       </c>
       <c r="D113" s="3">
-        <v>3.75215</v>
+        <v>0.2716321014817531</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3508,13 +3508,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>48.03</v>
+        <v>49.05</v>
       </c>
       <c r="C114" s="2">
-        <v>14681745543</v>
+        <v>14854057940</v>
       </c>
       <c r="D114" s="3">
-        <v>24.25515</v>
+        <v>0.04037100957802203</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3522,13 +3522,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>115.64</v>
+        <v>115.43</v>
       </c>
       <c r="C115" s="2">
-        <v>27119135862</v>
+        <v>27792980656</v>
       </c>
       <c r="D115" s="3">
-        <v>58.3982</v>
+        <v>0.0171549685506539</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3536,13 +3536,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>225.2</v>
+        <v>228.83</v>
       </c>
       <c r="C116" s="2">
-        <v>212629708553</v>
+        <v>210527212209</v>
       </c>
       <c r="D116" s="3">
-        <v>113.726</v>
+        <v>0.008653576977677664</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3550,13 +3550,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>46.21</v>
+        <v>45.5</v>
       </c>
       <c r="C117" s="2">
-        <v>189293896749</v>
+        <v>195685911840</v>
       </c>
       <c r="D117" s="3">
-        <v>23.33605</v>
+        <v>0.04352083560004352</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3564,13 +3564,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>93.81999999999999</v>
+        <v>94.76000000000001</v>
       </c>
       <c r="C118" s="2">
-        <v>70939153592</v>
+        <v>72187396130</v>
       </c>
       <c r="D118" s="3">
-        <v>47.37909999999999</v>
+        <v>0.0208969820578512</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3578,13 +3578,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>359.19</v>
+        <v>348.89</v>
       </c>
       <c r="C119" s="2">
-        <v>38375611338</v>
+        <v>37621905090</v>
       </c>
       <c r="D119" s="3">
-        <v>181.39095</v>
+        <v>0.005675708732844106</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3595,10 +3595,10 @@
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>12609165960</v>
+        <v>12637890532</v>
       </c>
       <c r="D120" s="3">
-        <v>5.555</v>
+        <v>0.18001800180018</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3606,13 +3606,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>79.63</v>
+        <v>82.2</v>
       </c>
       <c r="C121" s="2">
-        <v>43437776962</v>
+        <v>43061391577</v>
       </c>
       <c r="D121" s="3">
-        <v>40.21315</v>
+        <v>0.0240900002409</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3620,13 +3620,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>40.796</v>
+        <v>39.152</v>
       </c>
       <c r="C122" s="2">
-        <v>29094567403</v>
+        <v>29269123287</v>
       </c>
       <c r="D122" s="3">
-        <v>20.60198</v>
+        <v>0.0505771868564053</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3634,13 +3634,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>132.33</v>
+        <v>137.591</v>
       </c>
       <c r="C123" s="2">
-        <v>16528254305</v>
+        <v>16988770686</v>
       </c>
       <c r="D123" s="3">
-        <v>66.82665</v>
+        <v>0.01439191531278921</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3648,13 +3648,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>74.06999999999999</v>
+        <v>74.66</v>
       </c>
       <c r="C124" s="2">
-        <v>95167829343</v>
+        <v>95535459386</v>
       </c>
       <c r="D124" s="3">
-        <v>37.40535</v>
+        <v>0.02652287730782186</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3662,13 +3662,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>95.551</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="C125" s="2">
-        <v>178203187071</v>
+        <v>173976531097</v>
       </c>
       <c r="D125" s="3">
-        <v>48.253255</v>
+        <v>0.02047562837144019</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3676,13 +3676,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>64.43000000000001</v>
+        <v>65.56</v>
       </c>
       <c r="C126" s="2">
-        <v>12987093725</v>
+        <v>12939997017</v>
       </c>
       <c r="D126" s="3">
-        <v>32.53715</v>
+        <v>0.03020436271815101</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3690,13 +3690,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>77.81999999999999</v>
+        <v>74.66</v>
       </c>
       <c r="C127" s="2">
-        <v>63669487951</v>
+        <v>61096322774</v>
       </c>
       <c r="D127" s="3">
-        <v>39.2991</v>
+        <v>0.02652287730782186</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3704,13 +3704,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>42.65</v>
+        <v>44.16</v>
       </c>
       <c r="C128" s="2">
-        <v>27235483309</v>
+        <v>27858742826</v>
       </c>
       <c r="D128" s="3">
-        <v>21.53825</v>
+        <v>0.04484144066580571</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3718,13 +3718,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>67.05</v>
+        <v>69.69</v>
       </c>
       <c r="C129" s="2">
-        <v>49317348756</v>
+        <v>50367105717</v>
       </c>
       <c r="D129" s="3">
-        <v>33.86025</v>
+        <v>0.02841437824367887</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3732,13 +3732,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>261.1</v>
+        <v>256.77</v>
       </c>
       <c r="C130" s="2">
-        <v>81342513527</v>
+        <v>83016563911</v>
       </c>
       <c r="D130" s="3">
-        <v>131.8555</v>
+        <v>0.0077119524079993</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3746,13 +3746,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>85.77</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="C131" s="2">
-        <v>26426188641</v>
+        <v>26808700651</v>
       </c>
       <c r="D131" s="3">
-        <v>43.31385</v>
+        <v>0.02242833865445668</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3760,13 +3760,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>216.72</v>
+        <v>206.67</v>
       </c>
       <c r="C132" s="2">
-        <v>51493615616</v>
+        <v>50533665136</v>
       </c>
       <c r="D132" s="3">
-        <v>109.4436</v>
+        <v>0.009581448782125999</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3774,13 +3774,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>127.3</v>
+        <v>130.07</v>
       </c>
       <c r="C133" s="2">
-        <v>17052436608</v>
+        <v>17719412490</v>
       </c>
       <c r="D133" s="3">
-        <v>64.2865</v>
+        <v>0.0152240948704696</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3788,13 +3788,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>72</v>
+        <v>70.587</v>
       </c>
       <c r="C134" s="2">
-        <v>25914618989</v>
+        <v>25720893508</v>
       </c>
       <c r="D134" s="3">
-        <v>36.36</v>
+        <v>0.02805329621321178</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3802,13 +3802,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>232.33</v>
+        <v>231.22</v>
       </c>
       <c r="C135" s="2">
-        <v>165144163157</v>
+        <v>162718248788</v>
       </c>
       <c r="D135" s="3">
-        <v>117.32665</v>
+        <v>0.00856412948621218</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3816,13 +3816,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>160.103</v>
+        <v>154.56</v>
       </c>
       <c r="C136" s="2">
-        <v>292415879536</v>
+        <v>287690066131</v>
       </c>
       <c r="D136" s="3">
-        <v>80.85201500000001</v>
+        <v>0.0128118401902302</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3830,13 +3830,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>28.88</v>
+        <v>30.2</v>
       </c>
       <c r="C137" s="2">
-        <v>13205634614</v>
+        <v>13682158603</v>
       </c>
       <c r="D137" s="3">
-        <v>14.5844</v>
+        <v>0.0655694708543702</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3844,13 +3844,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>25.49</v>
+        <v>26.07</v>
       </c>
       <c r="C138" s="2">
-        <v>13493948039</v>
+        <v>13389439580</v>
       </c>
       <c r="D138" s="3">
-        <v>12.87245</v>
+        <v>0.07595696278488608</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3858,13 +3858,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>37.08</v>
+        <v>36.28</v>
       </c>
       <c r="C139" s="2">
-        <v>10489819843</v>
+        <v>10505373120</v>
       </c>
       <c r="D139" s="3">
-        <v>18.7254</v>
+        <v>0.05458098180270066</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3872,13 +3872,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>135.86</v>
+        <v>131.42</v>
       </c>
       <c r="C140" s="2">
-        <v>37222418887</v>
+        <v>37026399563</v>
       </c>
       <c r="D140" s="3">
-        <v>68.6093</v>
+        <v>0.01506770674023726</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3886,13 +3886,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>110.86</v>
+        <v>112.71</v>
       </c>
       <c r="C141" s="2">
-        <v>26930392044</v>
+        <v>25415551054</v>
       </c>
       <c r="D141" s="3">
-        <v>55.9843</v>
+        <v>0.01756896477510407</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3900,13 +3900,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>126.719</v>
+        <v>122.274</v>
       </c>
       <c r="C142" s="2">
-        <v>17904347661</v>
+        <v>17694473655</v>
       </c>
       <c r="D142" s="3">
-        <v>63.993095</v>
+        <v>0.01619475947300309</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3914,13 +3914,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>55.47</v>
+        <v>56.76</v>
       </c>
       <c r="C143" s="2">
-        <v>40956868504</v>
+        <v>40662157303</v>
       </c>
       <c r="D143" s="3">
-        <v>28.01235</v>
+        <v>0.03488720965119768</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3928,13 +3928,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>389.65</v>
+        <v>399.96</v>
       </c>
       <c r="C144" s="2">
-        <v>15621741886</v>
+        <v>15466299823</v>
       </c>
       <c r="D144" s="3">
-        <v>196.77325</v>
+        <v>0.004950990148519803</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3942,13 +3942,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>38.233</v>
+        <v>38.99</v>
       </c>
       <c r="C145" s="2">
-        <v>14832392814</v>
+        <v>14563300707</v>
       </c>
       <c r="D145" s="3">
-        <v>19.307665</v>
+        <v>0.05078733059251039</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3956,13 +3956,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>115.73</v>
+        <v>118.33</v>
       </c>
       <c r="C146" s="2">
-        <v>14961980885</v>
+        <v>15333766415</v>
       </c>
       <c r="D146" s="3">
-        <v>58.44365000000001</v>
+        <v>0.01673453916844402</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3970,13 +3970,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>123.65</v>
+        <v>125.94</v>
       </c>
       <c r="C147" s="2">
-        <v>24387997911</v>
+        <v>24937849951</v>
       </c>
       <c r="D147" s="3">
-        <v>62.44325000000001</v>
+        <v>0.01572334460697142</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3984,13 +3984,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>93.79000000000001</v>
+        <v>91.84</v>
       </c>
       <c r="C148" s="2">
-        <v>68696806322</v>
+        <v>68643262534</v>
       </c>
       <c r="D148" s="3">
-        <v>47.36395</v>
+        <v>0.0215613895884362</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3998,13 +3998,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>113.61</v>
+        <v>113.36</v>
       </c>
       <c r="C149" s="2">
-        <v>12892627785</v>
+        <v>12663655641</v>
       </c>
       <c r="D149" s="3">
-        <v>57.37305</v>
+        <v>0.01746822529818261</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4012,13 +4012,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>17.04</v>
+        <v>16.92</v>
       </c>
       <c r="C150" s="2">
-        <v>6328176816</v>
+        <v>6441824538</v>
       </c>
       <c r="D150" s="3">
-        <v>8.6052</v>
+        <v>0.117032979893734</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4026,13 +4026,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>25.62</v>
+        <v>25.6</v>
       </c>
       <c r="C151" s="2">
-        <v>6345007452</v>
+        <v>6590730523</v>
       </c>
       <c r="D151" s="3">
-        <v>12.9381</v>
+        <v>0.07735148514851485</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4040,13 +4040,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>343.4</v>
+        <v>354.76</v>
       </c>
       <c r="C152" s="2">
-        <v>33820807306</v>
+        <v>33471579958</v>
       </c>
       <c r="D152" s="3">
-        <v>173.417</v>
+        <v>0.005581796199689876</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4054,13 +4054,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>139.64</v>
+        <v>139.44</v>
       </c>
       <c r="C153" s="2">
-        <v>39481760257</v>
+        <v>40275207589</v>
       </c>
       <c r="D153" s="3">
-        <v>70.51819999999999</v>
+        <v>0.01420107587350818</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4068,13 +4068,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>51.53</v>
+        <v>51.479</v>
       </c>
       <c r="C154" s="2">
-        <v>35277124370</v>
+        <v>34934609188</v>
       </c>
       <c r="D154" s="3">
-        <v>26.02265</v>
+        <v>0.03846613220540376</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4082,13 +4082,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>235.45</v>
+        <v>225.48</v>
       </c>
       <c r="C155" s="2">
-        <v>67061444711</v>
+        <v>64692653109</v>
       </c>
       <c r="D155" s="3">
-        <v>118.90225</v>
+        <v>0.008782144845671368</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4096,13 +4096,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>75.02</v>
+        <v>74.05</v>
       </c>
       <c r="C156" s="2">
-        <v>24816025897</v>
+        <v>24636616039</v>
       </c>
       <c r="D156" s="3">
-        <v>37.8851</v>
+        <v>0.02674136421069521</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4110,13 +4110,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>188.63</v>
+        <v>189.57</v>
       </c>
       <c r="C157" s="2">
-        <v>22788413628</v>
+        <v>23243089389</v>
       </c>
       <c r="D157" s="3">
-        <v>95.25815</v>
+        <v>0.01044573518912265</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4124,13 +4124,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>63.54</v>
+        <v>62.9</v>
       </c>
       <c r="C158" s="2">
-        <v>24096870555</v>
+        <v>23998424238</v>
       </c>
       <c r="D158" s="3">
-        <v>32.0877</v>
+        <v>0.03148168552944325</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4138,13 +4138,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>258.64</v>
+        <v>247.11</v>
       </c>
       <c r="C159" s="2">
-        <v>56089663253</v>
+        <v>57275099416</v>
       </c>
       <c r="D159" s="3">
-        <v>130.6132</v>
+        <v>0.008013427298781838</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4152,13 +4152,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>106.896</v>
+        <v>106.41</v>
       </c>
       <c r="C160" s="2">
-        <v>14140938552</v>
+        <v>14465147561</v>
       </c>
       <c r="D160" s="3">
-        <v>53.98248</v>
+        <v>0.01860913466593347</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4166,13 +4166,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>85</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C161" s="2">
-        <v>50233300200</v>
+        <v>48872133141</v>
       </c>
       <c r="D161" s="3">
-        <v>42.925</v>
+        <v>0.02354575528896528</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4180,13 +4180,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>55.62</v>
+        <v>56.67</v>
       </c>
       <c r="C162" s="2">
-        <v>32725887143</v>
+        <v>32848838970</v>
       </c>
       <c r="D162" s="3">
-        <v>28.0881</v>
+        <v>0.03494261548971202</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4194,13 +4194,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>698.15</v>
+        <v>708.299</v>
       </c>
       <c r="C163" s="2">
-        <v>61425864738</v>
+        <v>61598562755</v>
       </c>
       <c r="D163" s="3">
-        <v>352.56575</v>
+        <v>0.002795709184683277</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4208,13 +4208,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>62.38</v>
+        <v>62.31</v>
       </c>
       <c r="C164" s="2">
-        <v>23206817858</v>
+        <v>22693515164</v>
       </c>
       <c r="D164" s="3">
-        <v>31.5019</v>
+        <v>0.03177977884451902</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4222,13 +4222,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>85.38200000000001</v>
+        <v>88.62</v>
       </c>
       <c r="C165" s="2">
-        <v>29904879493</v>
+        <v>30272762971</v>
       </c>
       <c r="D165" s="3">
-        <v>43.11791</v>
+        <v>0.02234482080570955</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4236,13 +4236,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>249.45</v>
+        <v>251.7</v>
       </c>
       <c r="C166" s="2">
-        <v>16454107571</v>
+        <v>16383491995</v>
       </c>
       <c r="D166" s="3">
-        <v>125.97225</v>
+        <v>0.007867294476765914</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4250,13 +4250,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>49.52</v>
+        <v>50.03</v>
       </c>
       <c r="C167" s="2">
-        <v>11107073875</v>
+        <v>10908726126</v>
       </c>
       <c r="D167" s="3">
-        <v>25.0076</v>
+        <v>0.0395802122686784</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4264,13 +4264,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>119.72</v>
+        <v>121.03</v>
       </c>
       <c r="C168" s="2">
-        <v>47508023098</v>
+        <v>48104335554</v>
       </c>
       <c r="D168" s="3">
-        <v>60.4586</v>
+        <v>0.0163612163909938</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4278,13 +4278,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>105.15</v>
+        <v>103.8</v>
       </c>
       <c r="C169" s="2">
-        <v>21340530463</v>
+        <v>20875131186</v>
       </c>
       <c r="D169" s="3">
-        <v>53.10075000000001</v>
+        <v>0.01907705221389191</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4292,13 +4292,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>57.24</v>
+        <v>56.36</v>
       </c>
       <c r="C170" s="2">
-        <v>12721955942</v>
+        <v>12606122324</v>
       </c>
       <c r="D170" s="3">
-        <v>28.9062</v>
+        <v>0.03513481227469802</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4306,13 +4306,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>90.88</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="C171" s="2">
-        <v>54420218844</v>
+        <v>56510229091</v>
       </c>
       <c r="D171" s="3">
-        <v>45.8944</v>
+        <v>0.02175802680806483</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4320,13 +4320,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>42.612</v>
+        <v>43.258</v>
       </c>
       <c r="C172" s="2">
-        <v>41488615542</v>
+        <v>42101453083</v>
       </c>
       <c r="D172" s="3">
-        <v>21.51906</v>
+        <v>0.04577645799163114</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4334,13 +4334,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>94.75</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="C173" s="2">
-        <v>15579071494</v>
+        <v>15226215984</v>
       </c>
       <c r="D173" s="3">
-        <v>47.84875</v>
+        <v>0.02201198332372143</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4348,13 +4348,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>137</v>
+        <v>136.3</v>
       </c>
       <c r="C174" s="2">
-        <v>18037549811</v>
+        <v>18672848092</v>
       </c>
       <c r="D174" s="3">
-        <v>69.185</v>
+        <v>0.01452823198680836</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4362,13 +4362,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>116.66</v>
+        <v>115.258</v>
       </c>
       <c r="C175" s="2">
-        <v>15076762062</v>
+        <v>14676264512</v>
       </c>
       <c r="D175" s="3">
-        <v>58.9133</v>
+        <v>0.01718056898264745</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4376,13 +4376,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>9.327999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="C176" s="2">
-        <v>36279356471</v>
+        <v>37417468494</v>
       </c>
       <c r="D176" s="3">
-        <v>4.71064</v>
+        <v>0.2117858844708</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4390,13 +4390,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>50.927</v>
+        <v>50.73</v>
       </c>
       <c r="C177" s="2">
-        <v>8022189269</v>
+        <v>7962764957</v>
       </c>
       <c r="D177" s="3">
-        <v>25.718135</v>
+        <v>0.03903406307514252</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4404,13 +4404,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>50.34</v>
+        <v>49.14</v>
       </c>
       <c r="C178" s="2">
-        <v>27936500546</v>
+        <v>27890779493</v>
       </c>
       <c r="D178" s="3">
-        <v>25.4217</v>
+        <v>0.0402970700000403</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4418,13 +4418,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>281.27</v>
+        <v>290.07</v>
       </c>
       <c r="C179" s="2">
-        <v>796208595847</v>
+        <v>823854039010</v>
       </c>
       <c r="D179" s="3">
-        <v>142.04135</v>
+        <v>0.006826621228675769</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4432,13 +4432,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>86.25</v>
+        <v>86.31999999999999</v>
       </c>
       <c r="C180" s="2">
-        <v>12070873609</v>
+        <v>12100793569</v>
       </c>
       <c r="D180" s="3">
-        <v>43.55625</v>
+        <v>0.02294019948797475</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4446,13 +4446,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>26.193</v>
+        <v>25.12</v>
       </c>
       <c r="C181" s="2">
-        <v>36619673671</v>
+        <v>37531118200</v>
       </c>
       <c r="D181" s="3">
-        <v>13.227465</v>
+        <v>0.0788295390048559</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4460,13 +4460,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>305.34</v>
+        <v>294.61</v>
       </c>
       <c r="C182" s="2">
-        <v>76673399159</v>
+        <v>77338288153</v>
       </c>
       <c r="D182" s="3">
-        <v>154.1967</v>
+        <v>0.006721421607555684</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4474,13 +4474,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>31.274</v>
+        <v>31.26</v>
       </c>
       <c r="C183" s="2">
-        <v>17185640978</v>
+        <v>17028608380</v>
       </c>
       <c r="D183" s="3">
-        <v>15.79337</v>
+        <v>0.06334606589257774</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4488,13 +4488,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>174.2</v>
+        <v>179.78</v>
       </c>
       <c r="C184" s="2">
-        <v>10907615319</v>
+        <v>10636739840</v>
       </c>
       <c r="D184" s="3">
-        <v>87.97099999999999</v>
+        <v>0.01101456235288675</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4502,13 +4502,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>155.28</v>
+        <v>150.86</v>
       </c>
       <c r="C185" s="2">
-        <v>92505704917</v>
+        <v>94362659783</v>
       </c>
       <c r="D185" s="3">
-        <v>78.4164</v>
+        <v>0.01312606403156556</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4516,13 +4516,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>118.06</v>
+        <v>120.165</v>
       </c>
       <c r="C186" s="2">
-        <v>76723908592</v>
+        <v>79125086088</v>
       </c>
       <c r="D186" s="3">
-        <v>59.6203</v>
+        <v>0.01647899155163301</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4530,13 +4530,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>28.84</v>
+        <v>28.569</v>
       </c>
       <c r="C187" s="2">
-        <v>20098993620</v>
+        <v>20771759453</v>
       </c>
       <c r="D187" s="3">
-        <v>14.5642</v>
+        <v>0.06931282228296336</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4544,13 +4544,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>43.083</v>
+        <v>43.427</v>
       </c>
       <c r="C188" s="2">
-        <v>5555802795</v>
+        <v>5565329812</v>
       </c>
       <c r="D188" s="3">
-        <v>21.756915</v>
+        <v>0.04559831486867572</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4558,13 +4558,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>37.24</v>
+        <v>37.353</v>
       </c>
       <c r="C189" s="2">
-        <v>4933083861</v>
+        <v>4979775597</v>
       </c>
       <c r="D189" s="3">
-        <v>18.8062</v>
+        <v>0.05301309184809735</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4572,13 +4572,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>266.39</v>
+        <v>284.2</v>
       </c>
       <c r="C190" s="2">
-        <v>23189613045</v>
+        <v>23312498330</v>
       </c>
       <c r="D190" s="3">
-        <v>134.52695</v>
+        <v>0.006967621463061155</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4586,13 +4586,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>123.34</v>
+        <v>120.112</v>
       </c>
       <c r="C191" s="2">
-        <v>15763253348</v>
+        <v>15338424086</v>
       </c>
       <c r="D191" s="3">
-        <v>62.2867</v>
+        <v>0.01648626298622935</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4600,13 +4600,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>29.34</v>
+        <v>29.71</v>
       </c>
       <c r="C192" s="2">
-        <v>17937702024</v>
+        <v>18072985770</v>
       </c>
       <c r="D192" s="3">
-        <v>14.8167</v>
+        <v>0.06665089262207943</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4614,13 +4614,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>30.2</v>
+        <v>30.46</v>
       </c>
       <c r="C193" s="2">
-        <v>17964489485</v>
+        <v>17639918907</v>
       </c>
       <c r="D193" s="3">
-        <v>15.251</v>
+        <v>0.06500978397248786</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4628,13 +4628,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>134.611</v>
+        <v>135.2</v>
       </c>
       <c r="C194" s="2">
-        <v>19256890558</v>
+        <v>19007310421</v>
       </c>
       <c r="D194" s="3">
-        <v>67.978555</v>
+        <v>0.01464643505770695</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4642,13 +4642,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>94.89</v>
+        <v>92.17</v>
       </c>
       <c r="C195" s="2">
-        <v>7081647437</v>
+        <v>7008299522</v>
       </c>
       <c r="D195" s="3">
-        <v>47.91945</v>
+        <v>0.02148419246828664</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4656,13 +4656,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>10.066</v>
+        <v>10.28</v>
       </c>
       <c r="C196" s="2">
-        <v>4695146613</v>
+        <v>4765438383</v>
       </c>
       <c r="D196" s="3">
-        <v>5.08333</v>
+        <v>0.1926262665177024</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4670,13 +4670,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>126.058</v>
+        <v>132.1</v>
       </c>
       <c r="C197" s="2">
-        <v>20774444607</v>
+        <v>21543267944</v>
       </c>
       <c r="D197" s="3">
-        <v>63.65929000000001</v>
+        <v>0.01499014398033293</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4684,13 +4684,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>70.52</v>
+        <v>69.72</v>
       </c>
       <c r="C198" s="2">
-        <v>23674539547</v>
+        <v>23297635559</v>
       </c>
       <c r="D198" s="3">
-        <v>35.6126</v>
+        <v>0.02840215174701636</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4698,13 +4698,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>152.2</v>
+        <v>155.31</v>
       </c>
       <c r="C199" s="2">
-        <v>44230210073</v>
+        <v>44950628860</v>
       </c>
       <c r="D199" s="3">
-        <v>76.86099999999999</v>
+        <v>0.01274997115319026</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4712,13 +4712,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>11.88</v>
+        <v>11.6</v>
       </c>
       <c r="C200" s="2">
-        <v>103575434261</v>
+        <v>103339347904</v>
       </c>
       <c r="D200" s="3">
-        <v>5.999400000000001</v>
+        <v>0.1707067258449983</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4726,13 +4726,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>60.35</v>
+        <v>61.527</v>
       </c>
       <c r="C201" s="2">
-        <v>76427177115</v>
+        <v>77282373719</v>
       </c>
       <c r="D201" s="3">
-        <v>30.47675</v>
+        <v>0.03218421213129163</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4740,13 +4740,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>59.87</v>
+        <v>59.4</v>
       </c>
       <c r="C202" s="2">
-        <v>37239440689</v>
+        <v>36547574791</v>
       </c>
       <c r="D202" s="3">
-        <v>30.23435</v>
+        <v>0.03333666700003333</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4754,13 +4754,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>94.89</v>
+        <v>95.93000000000001</v>
       </c>
       <c r="C203" s="2">
-        <v>10318323884</v>
+        <v>10357694074</v>
       </c>
       <c r="D203" s="3">
-        <v>47.91945</v>
+        <v>0.02064211424790973</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4768,13 +4768,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>37.73</v>
+        <v>39</v>
       </c>
       <c r="C204" s="2">
-        <v>29636156062</v>
+        <v>28878368265</v>
       </c>
       <c r="D204" s="3">
-        <v>19.05365</v>
+        <v>0.05077430820005077</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4782,13 +4782,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>44.03</v>
+        <v>43.899</v>
       </c>
       <c r="C205" s="2">
-        <v>62683792060</v>
+        <v>61351621069</v>
       </c>
       <c r="D205" s="3">
-        <v>22.23515</v>
+        <v>0.04510804391448507</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4796,13 +4796,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>1770.96</v>
+        <v>1813.364</v>
       </c>
       <c r="C206" s="2">
-        <v>1157664489714</v>
+        <v>1134192611768</v>
       </c>
       <c r="D206" s="3">
-        <v>894.3348</v>
+        <v>0.001092002499113239</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4810,13 +4810,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>1770.15</v>
+        <v>1819.04</v>
       </c>
       <c r="C207" s="2">
-        <v>1153976575045</v>
+        <v>1163686863210</v>
       </c>
       <c r="D207" s="3">
-        <v>893.9257500000001</v>
+        <v>0.001088595094006718</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4824,13 +4824,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>98.51000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C208" s="2">
-        <v>14436587798</v>
+        <v>14375930388</v>
       </c>
       <c r="D208" s="3">
-        <v>49.74755</v>
+        <v>0.02024742351535767</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4838,13 +4838,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>199.44</v>
+        <v>199.12</v>
       </c>
       <c r="C209" s="2">
-        <v>59437237742</v>
+        <v>60093436714</v>
       </c>
       <c r="D209" s="3">
-        <v>100.7172</v>
+        <v>0.009944746985747188</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4852,13 +4852,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>22.222</v>
+        <v>22.17</v>
       </c>
       <c r="C210" s="2">
-        <v>8521277373</v>
+        <v>8221260409</v>
       </c>
       <c r="D210" s="3">
-        <v>11.22211</v>
+        <v>0.08931881009481191</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4866,13 +4866,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>124.52</v>
+        <v>121.977</v>
       </c>
       <c r="C211" s="2">
-        <v>23570373302</v>
+        <v>22711623048</v>
       </c>
       <c r="D211" s="3">
-        <v>62.8826</v>
+        <v>0.01623419185421825</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4880,13 +4880,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>249.95</v>
+        <v>248.02</v>
       </c>
       <c r="C212" s="2">
-        <v>85258305487</v>
+        <v>87368571982</v>
       </c>
       <c r="D212" s="3">
-        <v>126.22475</v>
+        <v>0.007984025561656238</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4894,13 +4894,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>406.09</v>
+        <v>409.1</v>
       </c>
       <c r="C213" s="2">
-        <v>21976749259</v>
+        <v>21905367301</v>
       </c>
       <c r="D213" s="3">
-        <v>205.07545</v>
+        <v>0.004840376484482963</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4908,13 +4908,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>20.7</v>
+        <v>20.487</v>
       </c>
       <c r="C214" s="2">
-        <v>18345426469</v>
+        <v>18456529005</v>
       </c>
       <c r="D214" s="3">
-        <v>10.4535</v>
+        <v>0.09665631960765267</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4922,13 +4922,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>89.38</v>
+        <v>92.914</v>
       </c>
       <c r="C215" s="2">
-        <v>12216395481</v>
+        <v>12392493439</v>
       </c>
       <c r="D215" s="3">
-        <v>45.1369</v>
+        <v>0.02131215984460878</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4936,13 +4936,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>13.39</v>
+        <v>13.25</v>
       </c>
       <c r="C216" s="2">
-        <v>13406519125</v>
+        <v>13737895711</v>
       </c>
       <c r="D216" s="3">
-        <v>6.761950000000001</v>
+        <v>0.1494489071548664</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4950,13 +4950,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>14</v>
+        <v>14.46</v>
       </c>
       <c r="C217" s="2">
-        <v>4866753148</v>
+        <v>5028261681</v>
       </c>
       <c r="D217" s="3">
-        <v>7.07</v>
+        <v>0.1369431548964025</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4964,13 +4964,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>162.3</v>
+        <v>164.5</v>
       </c>
       <c r="C218" s="2">
-        <v>54638528168</v>
+        <v>56641658371</v>
       </c>
       <c r="D218" s="3">
-        <v>81.9615</v>
+        <v>0.01203767793192693</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4978,13 +4978,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>268.75</v>
+        <v>273.17</v>
       </c>
       <c r="C219" s="2">
-        <v>285063949869</v>
+        <v>294716882439</v>
       </c>
       <c r="D219" s="3">
-        <v>135.71875</v>
+        <v>0.007248958596485632</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4992,13 +4992,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>58.11</v>
+        <v>59.56</v>
       </c>
       <c r="C220" s="2">
-        <v>17465763794</v>
+        <v>18318149698</v>
       </c>
       <c r="D220" s="3">
-        <v>29.34555</v>
+        <v>0.03324711248828039</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5006,13 +5006,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>28.4</v>
+        <v>29.36</v>
       </c>
       <c r="C221" s="2">
-        <v>4756633942</v>
+        <v>4667137722</v>
       </c>
       <c r="D221" s="3">
-        <v>14.342</v>
+        <v>0.06744543664175683</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5020,13 +5020,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>49.07</v>
+        <v>49.57</v>
       </c>
       <c r="C222" s="2">
-        <v>17570382418</v>
+        <v>17883740811</v>
       </c>
       <c r="D222" s="3">
-        <v>24.78035</v>
+        <v>0.0399475089732092</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5034,13 +5034,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>179.47</v>
+        <v>177.014</v>
       </c>
       <c r="C223" s="2">
-        <v>7188871614</v>
+        <v>7344816658</v>
       </c>
       <c r="D223" s="3">
-        <v>90.63235</v>
+        <v>0.01118667461218875</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5048,13 +5048,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>107.88</v>
+        <v>112.15</v>
       </c>
       <c r="C224" s="2">
-        <v>30809944029</v>
+        <v>29946019016</v>
       </c>
       <c r="D224" s="3">
-        <v>54.4794</v>
+        <v>0.01765669210701721</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5062,13 +5062,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>74.73</v>
+        <v>76.928</v>
       </c>
       <c r="C225" s="2">
-        <v>19035016558</v>
+        <v>20118013053</v>
       </c>
       <c r="D225" s="3">
-        <v>37.73865</v>
+        <v>0.0257409268381081</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5076,13 +5076,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>211.681</v>
+        <v>217.17</v>
       </c>
       <c r="C226" s="2">
-        <v>154218752604</v>
+        <v>151800130919</v>
       </c>
       <c r="D226" s="3">
-        <v>106.898905</v>
+        <v>0.009118193211778701</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5090,13 +5090,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>12.512</v>
+        <v>12.773</v>
       </c>
       <c r="C227" s="2">
-        <v>15682328074</v>
+        <v>15784020979</v>
       </c>
       <c r="D227" s="3">
-        <v>6.318560000000001</v>
+        <v>0.1550299866751726</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5104,13 +5104,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>23.81</v>
+        <v>23.439</v>
       </c>
       <c r="C228" s="2">
-        <v>33302858192</v>
+        <v>32659879083</v>
       </c>
       <c r="D228" s="3">
-        <v>12.02405</v>
+        <v>0.08448304193020095</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5118,13 +5118,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>15.966</v>
+        <v>16.367</v>
       </c>
       <c r="C229" s="2">
-        <v>2933421437</v>
+        <v>2929603864</v>
       </c>
       <c r="D229" s="3">
-        <v>8.06283</v>
+        <v>0.1209872316125118</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5132,13 +5132,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>48.44</v>
+        <v>48.41</v>
       </c>
       <c r="C230" s="2">
-        <v>25277390794</v>
+        <v>26290777245</v>
       </c>
       <c r="D230" s="3">
-        <v>24.4622</v>
+        <v>0.04090473083664491</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5146,13 +5146,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>72</v>
+        <v>72.895</v>
       </c>
       <c r="C231" s="2">
-        <v>10549433728</v>
+        <v>10274026905</v>
       </c>
       <c r="D231" s="3">
-        <v>36.36</v>
+        <v>0.02716507332192853</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5160,13 +5160,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>15.03</v>
+        <v>15.07</v>
       </c>
       <c r="C232" s="2">
-        <v>10404780866</v>
+        <v>10935346373</v>
       </c>
       <c r="D232" s="3">
-        <v>7.59015</v>
+        <v>0.131400001314</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5174,13 +5174,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>157.17</v>
+        <v>151.653</v>
       </c>
       <c r="C233" s="2">
-        <v>23028535549</v>
+        <v>22163135850</v>
       </c>
       <c r="D233" s="3">
-        <v>79.37084999999999</v>
+        <v>0.01305742728335068</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5188,13 +5188,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>415.65</v>
+        <v>418.34</v>
       </c>
       <c r="C234" s="2">
-        <v>53976740510</v>
+        <v>53268980099</v>
       </c>
       <c r="D234" s="3">
-        <v>209.90325</v>
+        <v>0.004733465649476455</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5202,13 +5202,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>26.34</v>
+        <v>27.54</v>
       </c>
       <c r="C235" s="2">
-        <v>11224438680</v>
+        <v>11541793435</v>
       </c>
       <c r="D235" s="3">
-        <v>13.3017</v>
+        <v>0.07190261509811112</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5216,13 +5216,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>130.43</v>
+        <v>131.01</v>
       </c>
       <c r="C236" s="2">
-        <v>113596613763</v>
+        <v>113675953955</v>
       </c>
       <c r="D236" s="3">
-        <v>65.86715000000001</v>
+        <v>0.0151148616121058</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5230,13 +5230,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>112.88</v>
+        <v>111.5</v>
       </c>
       <c r="C237" s="2">
-        <v>63919876452</v>
+        <v>63886240428</v>
       </c>
       <c r="D237" s="3">
-        <v>57.0044</v>
+        <v>0.01775962349598189</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5244,13 +5244,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>463.2</v>
+        <v>461.06</v>
       </c>
       <c r="C238" s="2">
-        <v>39193308645</v>
+        <v>39234249141</v>
       </c>
       <c r="D238" s="3">
-        <v>233.916</v>
+        <v>0.00429488140329237</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5258,13 +5258,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>195.667</v>
+        <v>195.66</v>
       </c>
       <c r="C239" s="2">
-        <v>15274052590</v>
+        <v>15127496061</v>
       </c>
       <c r="D239" s="3">
-        <v>98.811835</v>
+        <v>0.01012060727691905</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5272,13 +5272,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>115.64</v>
+        <v>112.91</v>
       </c>
       <c r="C240" s="2">
-        <v>12375969393</v>
+        <v>12331837749</v>
       </c>
       <c r="D240" s="3">
-        <v>58.3982</v>
+        <v>0.01753784447614897</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5286,13 +5286,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>350.85</v>
+        <v>348.98</v>
       </c>
       <c r="C241" s="2">
-        <v>51652366627</v>
+        <v>52506149602</v>
       </c>
       <c r="D241" s="3">
-        <v>177.17925</v>
+        <v>0.005674244999146026</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5300,13 +5300,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>81.42</v>
+        <v>82.31</v>
       </c>
       <c r="C242" s="2">
-        <v>17936264690</v>
+        <v>18158194475</v>
       </c>
       <c r="D242" s="3">
-        <v>41.1171</v>
+        <v>0.02405780609648864</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5314,13 +5314,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>92.56</v>
+        <v>94</v>
       </c>
       <c r="C243" s="2">
-        <v>37080632153</v>
+        <v>36992708849</v>
       </c>
       <c r="D243" s="3">
-        <v>46.7428</v>
+        <v>0.02106593638087213</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5328,13 +5328,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>51.55</v>
+        <v>51.7</v>
       </c>
       <c r="C244" s="2">
-        <v>214851425968</v>
+        <v>214982603125</v>
       </c>
       <c r="D244" s="3">
-        <v>26.03275</v>
+        <v>0.0383017025106766</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5342,13 +5342,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>370.84</v>
+        <v>380.17</v>
       </c>
       <c r="C245" s="2">
-        <v>95866980012</v>
+        <v>97055065952</v>
       </c>
       <c r="D245" s="3">
-        <v>187.2742</v>
+        <v>0.005208717204939843</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5356,13 +5356,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>49.37</v>
+        <v>51.01</v>
       </c>
       <c r="C246" s="2">
-        <v>19700579110</v>
+        <v>19556002409</v>
       </c>
       <c r="D246" s="3">
-        <v>24.93185</v>
+        <v>0.038819800427406</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5370,13 +5370,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>23.94</v>
+        <v>23.97</v>
       </c>
       <c r="C247" s="2">
-        <v>9309259185</v>
+        <v>9307457693</v>
       </c>
       <c r="D247" s="3">
-        <v>12.0897</v>
+        <v>0.0826115152191064</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5384,13 +5384,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>216.77</v>
+        <v>211.47</v>
       </c>
       <c r="C248" s="2">
-        <v>11122181158</v>
+        <v>11424980489</v>
       </c>
       <c r="D248" s="3">
-        <v>109.46885</v>
+        <v>0.009363966613713436</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5398,13 +5398,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>176.71</v>
+        <v>176.86</v>
       </c>
       <c r="C249" s="2">
-        <v>33557674206</v>
+        <v>33025581791</v>
       </c>
       <c r="D249" s="3">
-        <v>89.23855</v>
+        <v>0.01119641535565973</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5412,13 +5412,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>46.582</v>
+        <v>47.1</v>
       </c>
       <c r="C250" s="2">
-        <v>19156221660</v>
+        <v>19465699758</v>
       </c>
       <c r="D250" s="3">
-        <v>23.52391</v>
+        <v>0.04204242080258981</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5426,13 +5426,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>31.47</v>
+        <v>30.81</v>
       </c>
       <c r="C251" s="2">
-        <v>8992551294</v>
+        <v>8729689131</v>
       </c>
       <c r="D251" s="3">
-        <v>15.89235</v>
+        <v>0.06427127620259591</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5440,13 +5440,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>763.65</v>
+        <v>776.65</v>
       </c>
       <c r="C252" s="2">
-        <v>91738213401</v>
+        <v>89701955771</v>
       </c>
       <c r="D252" s="3">
-        <v>385.64325</v>
+        <v>0.002549665898154871</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5454,13 +5454,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>156.34</v>
+        <v>161.723</v>
       </c>
       <c r="C253" s="2">
-        <v>13920553796</v>
+        <v>14017141249</v>
       </c>
       <c r="D253" s="3">
-        <v>78.9517</v>
+        <v>0.01224438094644534</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5468,13 +5468,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>212.5</v>
+        <v>204.12</v>
       </c>
       <c r="C254" s="2">
-        <v>66683368362</v>
+        <v>66709772643</v>
       </c>
       <c r="D254" s="3">
-        <v>107.3125</v>
+        <v>0.009701146481491183</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5482,13 +5482,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>17.6</v>
+        <v>17.716</v>
       </c>
       <c r="C255" s="2">
-        <v>8097279322</v>
+        <v>8069569448</v>
       </c>
       <c r="D255" s="3">
-        <v>8.888000000000002</v>
+        <v>0.1117745551931576</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5496,13 +5496,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>112.47</v>
+        <v>111.53</v>
       </c>
       <c r="C256" s="2">
-        <v>14400364725</v>
+        <v>14235523864</v>
       </c>
       <c r="D256" s="3">
-        <v>56.79735</v>
+        <v>0.01775484640726244</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5510,13 +5510,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>138.54</v>
+        <v>137.58</v>
       </c>
       <c r="C257" s="2">
-        <v>14685989049</v>
+        <v>14618296552</v>
       </c>
       <c r="D257" s="3">
-        <v>69.9627</v>
+        <v>0.01439306599652551</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5524,13 +5524,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>47.115</v>
+        <v>45.7</v>
       </c>
       <c r="C258" s="2">
-        <v>33449723041</v>
+        <v>33987818133</v>
       </c>
       <c r="D258" s="3">
-        <v>23.793075</v>
+        <v>0.04333037242455098</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5538,13 +5538,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>161.97</v>
+        <v>159.86</v>
       </c>
       <c r="C259" s="2">
-        <v>12532276866</v>
+        <v>11971837854</v>
       </c>
       <c r="D259" s="3">
-        <v>81.79485</v>
+        <v>0.01238707631553847</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5552,13 +5552,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>152.327</v>
+        <v>153.16</v>
       </c>
       <c r="C260" s="2">
-        <v>411048568514</v>
+        <v>416440888217</v>
       </c>
       <c r="D260" s="3">
-        <v>76.925135</v>
+        <v>0.01292895024681366</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5566,13 +5566,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>22.91</v>
+        <v>22.99</v>
       </c>
       <c r="C261" s="2">
-        <v>7542820527</v>
+        <v>7533526794</v>
       </c>
       <c r="D261" s="3">
-        <v>11.56955</v>
+        <v>0.08613301521539714</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5580,13 +5580,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>121.31</v>
+        <v>125.98</v>
       </c>
       <c r="C262" s="2">
-        <v>374851320194</v>
+        <v>381154545629</v>
       </c>
       <c r="D262" s="3">
-        <v>61.26155</v>
+        <v>0.01571835227656755</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5594,13 +5594,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>63.6</v>
+        <v>63.36</v>
       </c>
       <c r="C263" s="2">
-        <v>21533961783</v>
+        <v>22026601699</v>
       </c>
       <c r="D263" s="3">
-        <v>32.118</v>
+        <v>0.03125312531253125</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5608,13 +5608,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>16.243</v>
+        <v>16.46</v>
       </c>
       <c r="C264" s="2">
-        <v>16156422596</v>
+        <v>16112513845</v>
       </c>
       <c r="D264" s="3">
-        <v>8.202715</v>
+        <v>0.1203036464035225</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5622,13 +5622,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>124.9</v>
+        <v>130.1</v>
       </c>
       <c r="C265" s="2">
-        <v>24285973209</v>
+        <v>23513012839</v>
       </c>
       <c r="D265" s="3">
-        <v>63.0745</v>
+        <v>0.01522058431823198</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5636,13 +5636,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>34.2</v>
+        <v>35.3</v>
       </c>
       <c r="C266" s="2">
-        <v>42854934946</v>
+        <v>43673585602</v>
       </c>
       <c r="D266" s="3">
-        <v>17.271</v>
+        <v>0.05609626118419208</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5650,13 +5650,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>15.031</v>
+        <v>15.366</v>
       </c>
       <c r="C267" s="2">
-        <v>6477419102</v>
+        <v>6528413480</v>
       </c>
       <c r="D267" s="3">
-        <v>7.590655</v>
+        <v>0.1288688025381999</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5664,13 +5664,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>263.26</v>
+        <v>260.4</v>
       </c>
       <c r="C268" s="2">
-        <v>41122029146</v>
+        <v>39872613246</v>
       </c>
       <c r="D268" s="3">
-        <v>132.9463</v>
+        <v>0.007604447080652766</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5678,13 +5678,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>137.2</v>
+        <v>138.8</v>
       </c>
       <c r="C269" s="2">
-        <v>47847429944</v>
+        <v>47587563750</v>
       </c>
       <c r="D269" s="3">
-        <v>69.286</v>
+        <v>0.01426655633863098</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5692,13 +5692,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>15.51</v>
+        <v>14.92</v>
       </c>
       <c r="C270" s="2">
-        <v>34649757830</v>
+        <v>34682413814</v>
       </c>
       <c r="D270" s="3">
-        <v>7.83255</v>
+        <v>0.132721046903618</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5706,13 +5706,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>96.04000000000001</v>
+        <v>95.59</v>
       </c>
       <c r="C271" s="2">
-        <v>15662846782</v>
+        <v>15859089887</v>
       </c>
       <c r="D271" s="3">
-        <v>48.50020000000001</v>
+        <v>0.02071553530496893</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5720,13 +5720,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>54.167</v>
+        <v>55.62</v>
       </c>
       <c r="C272" s="2">
-        <v>235248099795</v>
+        <v>235106235267</v>
       </c>
       <c r="D272" s="3">
-        <v>27.354335</v>
+        <v>0.03560226572819095</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5734,13 +5734,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>32.13</v>
+        <v>32.039</v>
       </c>
       <c r="C273" s="2">
-        <v>24299543614</v>
+        <v>24259627602</v>
       </c>
       <c r="D273" s="3">
-        <v>16.22565</v>
+        <v>0.0618058622242261</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5748,13 +5748,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>40.49</v>
+        <v>39.76</v>
       </c>
       <c r="C274" s="2">
-        <v>6457678208</v>
+        <v>6449450800</v>
       </c>
       <c r="D274" s="3">
-        <v>20.44745</v>
+        <v>0.04980377313385263</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5762,13 +5762,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>204.86</v>
+        <v>194.938</v>
       </c>
       <c r="C275" s="2">
-        <v>18966484384</v>
+        <v>18508414706</v>
       </c>
       <c r="D275" s="3">
-        <v>103.4543</v>
+        <v>0.01015809139214509</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5776,13 +5776,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>43.32</v>
+        <v>44.77</v>
       </c>
       <c r="C276" s="2">
-        <v>12417156430</v>
+        <v>12437146363</v>
       </c>
       <c r="D276" s="3">
-        <v>21.8766</v>
+        <v>0.0442304672727715</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5790,13 +5790,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>42.83</v>
+        <v>41.59</v>
       </c>
       <c r="C277" s="2">
-        <v>11525046962</v>
+        <v>11775868450</v>
       </c>
       <c r="D277" s="3">
-        <v>21.62915</v>
+        <v>0.04761235921620534</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5804,13 +5804,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>103.797</v>
+        <v>107.15</v>
       </c>
       <c r="C278" s="2">
-        <v>15363121707</v>
+        <v>15022614616</v>
       </c>
       <c r="D278" s="3">
-        <v>52.417485</v>
+        <v>0.01848061614374223</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5818,13 +5818,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>43.57</v>
+        <v>42.34</v>
       </c>
       <c r="C279" s="2">
-        <v>5685059319</v>
+        <v>5832436721</v>
       </c>
       <c r="D279" s="3">
-        <v>22.00285</v>
+        <v>0.04676896598493104</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5832,13 +5832,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>76.173</v>
+        <v>74.93000000000001</v>
       </c>
       <c r="C280" s="2">
-        <v>23196584062</v>
+        <v>23092532290</v>
       </c>
       <c r="D280" s="3">
-        <v>38.467365</v>
+        <v>0.0264273057493925</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5846,13 +5846,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>210.54</v>
+        <v>216.145</v>
       </c>
       <c r="C281" s="2">
-        <v>20097049529</v>
+        <v>20959371376</v>
       </c>
       <c r="D281" s="3">
-        <v>106.3227</v>
+        <v>0.009161433388706564</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5860,13 +5860,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>196.68</v>
+        <v>188.67</v>
       </c>
       <c r="C282" s="2">
-        <v>39671239847</v>
+        <v>41135077598</v>
       </c>
       <c r="D282" s="3">
-        <v>99.32340000000001</v>
+        <v>0.01049556378757609</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5874,13 +5874,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>253.905</v>
+        <v>254.48</v>
       </c>
       <c r="C283" s="2">
-        <v>134650745710</v>
+        <v>137098581333</v>
       </c>
       <c r="D283" s="3">
-        <v>128.222025</v>
+        <v>0.007781350282151761</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5888,13 +5888,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>37.27</v>
+        <v>36.683</v>
       </c>
       <c r="C284" s="2">
-        <v>11488361197</v>
+        <v>11634184805</v>
       </c>
       <c r="D284" s="3">
-        <v>18.82135</v>
+        <v>0.05398135430041109</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5902,13 +5902,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>162.232</v>
+        <v>164.22</v>
       </c>
       <c r="C285" s="2">
-        <v>159718617644</v>
+        <v>159449072164</v>
       </c>
       <c r="D285" s="3">
-        <v>81.92716</v>
+        <v>0.01205820253198137</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5916,13 +5916,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>370.84</v>
+        <v>357.33</v>
       </c>
       <c r="C286" s="2">
-        <v>104308621054</v>
+        <v>103234091726</v>
       </c>
       <c r="D286" s="3">
-        <v>187.2742</v>
+        <v>0.005541650630515155</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5930,13 +5930,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>52.55</v>
+        <v>52.98</v>
       </c>
       <c r="C287" s="2">
-        <v>10300083227</v>
+        <v>10222823655</v>
       </c>
       <c r="D287" s="3">
-        <v>26.53775</v>
+        <v>0.03737633106459004</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5944,13 +5944,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>52.39</v>
+        <v>52.249</v>
       </c>
       <c r="C288" s="2">
-        <v>12933346917</v>
+        <v>13420038963</v>
       </c>
       <c r="D288" s="3">
-        <v>26.45695</v>
+        <v>0.03789925203931137</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5958,13 +5958,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>166.28</v>
+        <v>168.64</v>
       </c>
       <c r="C289" s="2">
-        <v>117942640968</v>
+        <v>119244860211</v>
       </c>
       <c r="D289" s="3">
-        <v>83.9714</v>
+        <v>0.01174216093336089</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5972,13 +5972,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>502.34</v>
+        <v>502.69</v>
       </c>
       <c r="C290" s="2">
-        <v>72851663413</v>
+        <v>72179765822</v>
       </c>
       <c r="D290" s="3">
-        <v>253.6817</v>
+        <v>0.003939203126781874</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5986,13 +5986,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>47.517</v>
+        <v>47.69</v>
       </c>
       <c r="C291" s="2">
-        <v>28355517808</v>
+        <v>27618213444</v>
       </c>
       <c r="D291" s="3">
-        <v>23.996085</v>
+        <v>0.04152229020343846</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6000,13 +6000,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>59.9</v>
+        <v>59.954</v>
       </c>
       <c r="C292" s="2">
-        <v>46272006820</v>
+        <v>45923692669</v>
       </c>
       <c r="D292" s="3">
-        <v>30.2495</v>
+        <v>0.03302862227377623</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6014,13 +6014,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>77.09</v>
+        <v>78.22</v>
       </c>
       <c r="C293" s="2">
-        <v>11333382348</v>
+        <v>11475810797</v>
       </c>
       <c r="D293" s="3">
-        <v>38.93045</v>
+        <v>0.0253157507006134</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6028,13 +6028,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>91.2</v>
+        <v>90.06999999999999</v>
       </c>
       <c r="C294" s="2">
-        <v>30677628903</v>
+        <v>30939893169</v>
       </c>
       <c r="D294" s="3">
-        <v>46.056</v>
+        <v>0.02198510069725747</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6042,13 +6042,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>73.56999999999999</v>
+        <v>73.78</v>
       </c>
       <c r="C295" s="2">
-        <v>15930924274</v>
+        <v>15623227776</v>
       </c>
       <c r="D295" s="3">
-        <v>37.15284999999999</v>
+        <v>0.02683922499053917</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6056,13 +6056,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>343.86</v>
+        <v>334.65</v>
       </c>
       <c r="C296" s="2">
-        <v>338311784952</v>
+        <v>339671728246</v>
       </c>
       <c r="D296" s="3">
-        <v>173.6493</v>
+        <v>0.005917221036312506</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6070,13 +6070,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>123.595</v>
+        <v>124.7</v>
       </c>
       <c r="C297" s="2">
-        <v>14401915004</v>
+        <v>14421294072</v>
       </c>
       <c r="D297" s="3">
-        <v>62.415475</v>
+        <v>0.0158796954274417</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6084,13 +6084,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>137.87</v>
+        <v>135.39</v>
       </c>
       <c r="C298" s="2">
-        <v>42919279397</v>
+        <v>43091318378</v>
       </c>
       <c r="D298" s="3">
-        <v>69.62435000000001</v>
+        <v>0.01462588093509107</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6098,13 +6098,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>54.11</v>
+        <v>55.469</v>
       </c>
       <c r="C299" s="2">
-        <v>14605065688</v>
+        <v>14702588398</v>
       </c>
       <c r="D299" s="3">
-        <v>27.32555</v>
+        <v>0.03569918368461628</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6112,13 +6112,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>216.36</v>
+        <v>218.22</v>
       </c>
       <c r="C300" s="2">
-        <v>155121292215</v>
+        <v>160402917789</v>
       </c>
       <c r="D300" s="3">
-        <v>109.2618</v>
+        <v>0.009074319584831731</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6126,13 +6126,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>143.77</v>
+        <v>144.55</v>
       </c>
       <c r="C301" s="2">
-        <v>38145225470</v>
+        <v>36904871684</v>
       </c>
       <c r="D301" s="3">
-        <v>72.60385000000001</v>
+        <v>0.01369905236805244</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6140,13 +6140,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>180.23</v>
+        <v>181.346</v>
       </c>
       <c r="C302" s="2">
-        <v>28876353764</v>
+        <v>29491889071</v>
       </c>
       <c r="D302" s="3">
-        <v>91.01615</v>
+        <v>0.01091944691254276</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6154,13 +6154,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>277.181</v>
+        <v>279.83</v>
       </c>
       <c r="C303" s="2">
-        <v>53249466338</v>
+        <v>53761382200</v>
       </c>
       <c r="D303" s="3">
-        <v>139.976405</v>
+        <v>0.007076432190265448</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6168,13 +6168,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>57.69</v>
+        <v>58.5</v>
       </c>
       <c r="C304" s="2">
-        <v>84908317602</v>
+        <v>84106202907</v>
       </c>
       <c r="D304" s="3">
-        <v>29.13345</v>
+        <v>0.03384953880003385</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6182,13 +6182,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>113.67</v>
+        <v>118.48</v>
       </c>
       <c r="C305" s="2">
-        <v>154483765793</v>
+        <v>159523669647</v>
       </c>
       <c r="D305" s="3">
-        <v>57.40335</v>
+        <v>0.0167133526316845</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6196,13 +6196,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>47.2</v>
+        <v>49.59</v>
       </c>
       <c r="C306" s="2">
-        <v>42417309218</v>
+        <v>43838426209</v>
       </c>
       <c r="D306" s="3">
-        <v>23.836</v>
+        <v>0.03993139785847913</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6210,13 +6210,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>30.35</v>
+        <v>31.118</v>
       </c>
       <c r="C307" s="2">
-        <v>15029672337</v>
+        <v>15891795345</v>
       </c>
       <c r="D307" s="3">
-        <v>15.32675</v>
+        <v>0.0636351314288187</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6224,13 +6224,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>137.98</v>
+        <v>138.76</v>
       </c>
       <c r="C308" s="2">
-        <v>9662633390</v>
+        <v>9524073189</v>
       </c>
       <c r="D308" s="3">
-        <v>69.67989999999999</v>
+        <v>0.01427066892333511</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6238,13 +6238,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>94.05</v>
+        <v>95.035</v>
       </c>
       <c r="C309" s="2">
-        <v>12585627660</v>
+        <v>12587497995</v>
       </c>
       <c r="D309" s="3">
-        <v>47.49525</v>
+        <v>0.02083651307204693</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6252,13 +6252,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>566.33</v>
+        <v>547.84</v>
       </c>
       <c r="C310" s="2">
-        <v>21792140296</v>
+        <v>21559962636</v>
       </c>
       <c r="D310" s="3">
-        <v>285.99665</v>
+        <v>0.003614555380771722</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6266,13 +6266,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>271.14</v>
+        <v>277.655</v>
       </c>
       <c r="C311" s="2">
-        <v>17565517929</v>
+        <v>16570030037</v>
       </c>
       <c r="D311" s="3">
-        <v>136.9257</v>
+        <v>0.007131865155685943</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6280,13 +6280,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>119.25</v>
+        <v>118.459</v>
       </c>
       <c r="C312" s="2">
-        <v>59053995583</v>
+        <v>58815212769</v>
       </c>
       <c r="D312" s="3">
-        <v>60.22125</v>
+        <v>0.01671631551677779</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6294,13 +6294,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>176.17</v>
+        <v>177.32</v>
       </c>
       <c r="C313" s="2">
-        <v>101965964198</v>
+        <v>104159869714</v>
       </c>
       <c r="D313" s="3">
-        <v>88.96584999999999</v>
+        <v>0.01116736983872084</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6308,13 +6308,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>91.95099999999999</v>
+        <v>91.057</v>
       </c>
       <c r="C314" s="2">
-        <v>47691638440</v>
+        <v>46844266669</v>
       </c>
       <c r="D314" s="3">
-        <v>46.435255</v>
+        <v>0.02174679618043621</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6322,13 +6322,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>43.69</v>
+        <v>43.86</v>
       </c>
       <c r="C315" s="2">
-        <v>80494182273</v>
+        <v>83179516162</v>
       </c>
       <c r="D315" s="3">
-        <v>22.06345</v>
+        <v>0.04514815366625582</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6336,13 +6336,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>22.824</v>
+        <v>23.15</v>
       </c>
       <c r="C316" s="2">
-        <v>8669633132</v>
+        <v>8597335664</v>
       </c>
       <c r="D316" s="3">
-        <v>11.52612</v>
+        <v>0.08553771143853046</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6350,13 +6350,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>45.5</v>
+        <v>43.84</v>
       </c>
       <c r="C317" s="2">
-        <v>28861648556</v>
+        <v>29474211924</v>
       </c>
       <c r="D317" s="3">
-        <v>22.9775</v>
+        <v>0.0451687504516875</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6364,13 +6364,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>85.53</v>
+        <v>84</v>
       </c>
       <c r="C318" s="2">
-        <v>212801036713</v>
+        <v>219077774785</v>
       </c>
       <c r="D318" s="3">
-        <v>43.19265</v>
+        <v>0.02357378595002357</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6378,13 +6378,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>7.523</v>
+        <v>7.448</v>
       </c>
       <c r="C319" s="2">
-        <v>6068834138</v>
+        <v>5776090915</v>
       </c>
       <c r="D319" s="3">
-        <v>3.799115</v>
+        <v>0.2658697663536493</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6392,13 +6392,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>66.94799999999999</v>
+        <v>64.934</v>
       </c>
       <c r="C320" s="2">
-        <v>117349994665</v>
+        <v>121078519345</v>
       </c>
       <c r="D320" s="3">
-        <v>33.80874</v>
+        <v>0.03049554963196446</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6406,13 +6406,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>432.78</v>
+        <v>434.35</v>
       </c>
       <c r="C321" s="2">
-        <v>36164031541</v>
+        <v>35605452683</v>
       </c>
       <c r="D321" s="3">
-        <v>218.5539</v>
+        <v>0.004558991642228572</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6420,13 +6420,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>219.06</v>
+        <v>214.23</v>
       </c>
       <c r="C322" s="2">
-        <v>1636728672539</v>
+        <v>1668800221640</v>
       </c>
       <c r="D322" s="3">
-        <v>110.6253</v>
+        <v>0.009243327357522197</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6434,13 +6434,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>179.47</v>
+        <v>174.64</v>
       </c>
       <c r="C323" s="2">
-        <v>29537093204</v>
+        <v>30518169718</v>
       </c>
       <c r="D323" s="3">
-        <v>90.63235</v>
+        <v>0.01133874266950287</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6448,13 +6448,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>129.575</v>
+        <v>130.88</v>
       </c>
       <c r="C324" s="2">
-        <v>16601371900</v>
+        <v>17242094403</v>
       </c>
       <c r="D324" s="3">
-        <v>65.43537499999999</v>
+        <v>0.01512987484567528</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6462,13 +6462,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>1164.79</v>
+        <v>1183.47</v>
       </c>
       <c r="C325" s="2">
-        <v>28522412655</v>
+        <v>28211118694</v>
       </c>
       <c r="D325" s="3">
-        <v>588.2189499999999</v>
+        <v>0.00167321353291759</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6476,13 +6476,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>74.3</v>
+        <v>72.36</v>
       </c>
       <c r="C326" s="2">
-        <v>82024680676</v>
+        <v>83069713387</v>
       </c>
       <c r="D326" s="3">
-        <v>37.5215</v>
+        <v>0.02736592067166916</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6490,13 +6490,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>87.998</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="C327" s="2">
-        <v>23454324954</v>
+        <v>23286830412</v>
       </c>
       <c r="D327" s="3">
-        <v>44.43899</v>
+        <v>0.02311155485296429</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6504,13 +6504,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>16.41</v>
+        <v>16.05</v>
       </c>
       <c r="C328" s="2">
-        <v>8780987709</v>
+        <v>8754381850</v>
       </c>
       <c r="D328" s="3">
-        <v>8.287050000000001</v>
+        <v>0.1233768236636748</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6518,13 +6518,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>8.710000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="C329" s="2">
-        <v>4237027284</v>
+        <v>4128380151</v>
       </c>
       <c r="D329" s="3">
-        <v>4.39855</v>
+        <v>0.2291895856252292</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6532,13 +6532,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>27.63</v>
+        <v>27.92</v>
       </c>
       <c r="C330" s="2">
-        <v>6001898061</v>
+        <v>6110894088</v>
       </c>
       <c r="D330" s="3">
-        <v>13.95315</v>
+        <v>0.07092399784391046</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6546,13 +6546,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>128.62</v>
+        <v>126.59</v>
       </c>
       <c r="C331" s="2">
-        <v>20888565772</v>
+        <v>21272811829</v>
       </c>
       <c r="D331" s="3">
-        <v>64.95310000000001</v>
+        <v>0.01564261015721605</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6560,13 +6560,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>74.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="C332" s="2">
-        <v>37062553465</v>
+        <v>36048083697</v>
       </c>
       <c r="D332" s="3">
-        <v>37.67299999999999</v>
+        <v>0.02657983919197289</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6574,13 +6574,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>61.945</v>
+        <v>61.685</v>
       </c>
       <c r="C333" s="2">
-        <v>50433340428</v>
+        <v>48389578614</v>
       </c>
       <c r="D333" s="3">
-        <v>31.282225</v>
+        <v>0.03210177546894675</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6588,13 +6588,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>505.78</v>
+        <v>504.923</v>
       </c>
       <c r="C334" s="2">
-        <v>225322572319</v>
+        <v>227366658519</v>
       </c>
       <c r="D334" s="3">
-        <v>255.4189</v>
+        <v>0.003921782172335148</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6602,13 +6602,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>23.1</v>
+        <v>22.977</v>
       </c>
       <c r="C335" s="2">
-        <v>8740199131</v>
+        <v>8869555529</v>
       </c>
       <c r="D335" s="3">
-        <v>11.6655</v>
+        <v>0.08618174782617313</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6616,13 +6616,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>139.5</v>
+        <v>139.19</v>
       </c>
       <c r="C336" s="2">
-        <v>180017039977</v>
+        <v>173914603907</v>
       </c>
       <c r="D336" s="3">
-        <v>70.44750000000001</v>
+        <v>0.01422658251168892</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6630,13 +6630,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>19.55</v>
+        <v>19.943</v>
       </c>
       <c r="C337" s="2">
-        <v>11683083147</v>
+        <v>11766435205</v>
       </c>
       <c r="D337" s="3">
-        <v>9.87275</v>
+        <v>0.09929288571438499</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6644,13 +6644,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>19.778</v>
+        <v>19.74</v>
       </c>
       <c r="C338" s="2">
-        <v>6953997450</v>
+        <v>7050236513</v>
       </c>
       <c r="D338" s="3">
-        <v>9.98789</v>
+        <v>0.1003139827660578</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6658,13 +6658,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>309</v>
+        <v>306.83</v>
       </c>
       <c r="C339" s="2">
-        <v>51795583602</v>
+        <v>50152483290</v>
       </c>
       <c r="D339" s="3">
-        <v>156.045</v>
+        <v>0.006453730143082425</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6672,13 +6672,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>15.5</v>
+        <v>14.854</v>
       </c>
       <c r="C340" s="2">
-        <v>6023187841</v>
+        <v>5942421854</v>
       </c>
       <c r="D340" s="3">
-        <v>7.8275</v>
+        <v>0.1333107593780787</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6686,13 +6686,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>554.84</v>
+        <v>542.01</v>
       </c>
       <c r="C341" s="2">
-        <v>108199827744</v>
+        <v>105969821133</v>
       </c>
       <c r="D341" s="3">
-        <v>280.1942</v>
+        <v>0.00365343447501334</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6700,13 +6700,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>33.97</v>
+        <v>34.03</v>
       </c>
       <c r="C342" s="2">
-        <v>8331675704</v>
+        <v>8608537851</v>
       </c>
       <c r="D342" s="3">
-        <v>17.15485</v>
+        <v>0.05818977431096033</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6714,13 +6714,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>242.23</v>
+        <v>243.48</v>
       </c>
       <c r="C343" s="2">
-        <v>68515091239</v>
+        <v>66514908995</v>
       </c>
       <c r="D343" s="3">
-        <v>122.32615</v>
+        <v>0.008132898060629128</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6728,13 +6728,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>63.432</v>
+        <v>61.784</v>
       </c>
       <c r="C344" s="2">
-        <v>14133862531</v>
+        <v>13704011944</v>
       </c>
       <c r="D344" s="3">
-        <v>32.03316</v>
+        <v>0.03205033697724298</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6742,13 +6742,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>92.23999999999999</v>
+        <v>91.67</v>
       </c>
       <c r="C345" s="2">
-        <v>19692127108</v>
+        <v>19492040419</v>
       </c>
       <c r="D345" s="3">
-        <v>46.5812</v>
+        <v>0.02160137471148664</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6756,13 +6756,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>59.64</v>
+        <v>58.71</v>
       </c>
       <c r="C346" s="2">
-        <v>17236522501</v>
+        <v>17339163526</v>
       </c>
       <c r="D346" s="3">
-        <v>30.1182</v>
+        <v>0.03372846226881247</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6770,13 +6770,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>544.8200000000001</v>
+        <v>535.09</v>
       </c>
       <c r="C347" s="2">
-        <v>329593251546</v>
+        <v>331563768379</v>
       </c>
       <c r="D347" s="3">
-        <v>275.1341</v>
+        <v>0.003700682165246931</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6784,13 +6784,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>4214.158</v>
+        <v>4187.4</v>
       </c>
       <c r="C348" s="2">
-        <v>15542993936</v>
+        <v>14987396764</v>
       </c>
       <c r="D348" s="3">
-        <v>2128.14979</v>
+        <v>0.0004728944022070928</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6798,13 +6798,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>21.268</v>
+        <v>21.444</v>
       </c>
       <c r="C349" s="2">
-        <v>8975489572</v>
+        <v>9181814792</v>
       </c>
       <c r="D349" s="3">
-        <v>10.74034</v>
+        <v>0.09234275414111082</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6812,13 +6812,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>19.362</v>
+        <v>18.637</v>
       </c>
       <c r="C350" s="2">
-        <v>11105453478</v>
+        <v>11109905856</v>
       </c>
       <c r="D350" s="3">
-        <v>9.777809999999999</v>
+        <v>0.1062508998123078</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6826,13 +6826,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>19.2</v>
+        <v>18.923</v>
       </c>
       <c r="C351" s="2">
-        <v>11183881171</v>
+        <v>11289084267</v>
       </c>
       <c r="D351" s="3">
-        <v>9.696</v>
+        <v>0.1046450361888697</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6840,13 +6840,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>61.13</v>
+        <v>62.712</v>
       </c>
       <c r="C352" s="2">
-        <v>21125036159</v>
+        <v>21533187989</v>
       </c>
       <c r="D352" s="3">
-        <v>30.87065</v>
+        <v>0.03157606231346441</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6854,13 +6854,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>207.86</v>
+        <v>204.23</v>
       </c>
       <c r="C353" s="2">
-        <v>24266789204</v>
+        <v>23290830557</v>
       </c>
       <c r="D353" s="3">
-        <v>104.9693</v>
+        <v>0.009695921362199385</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6868,13 +6868,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>41.62</v>
+        <v>43.495</v>
       </c>
       <c r="C354" s="2">
-        <v>18730914468</v>
+        <v>18973162105</v>
       </c>
       <c r="D354" s="3">
-        <v>21.0181</v>
+        <v>0.04552702655022371</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6882,13 +6882,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>63.91</v>
+        <v>66.02</v>
       </c>
       <c r="C355" s="2">
-        <v>14220642235</v>
+        <v>14293388401</v>
       </c>
       <c r="D355" s="3">
-        <v>32.27455</v>
+        <v>0.02999391123601909</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6896,13 +6896,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>59.435</v>
+        <v>62.41</v>
       </c>
       <c r="C356" s="2">
-        <v>178778466053</v>
+        <v>185412459260</v>
       </c>
       <c r="D356" s="3">
-        <v>30.014675</v>
+        <v>0.03172885787216761</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6910,13 +6910,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>459.29</v>
+        <v>448.47</v>
       </c>
       <c r="C357" s="2">
-        <v>32993724911</v>
+        <v>33347647896</v>
       </c>
       <c r="D357" s="3">
-        <v>231.94145</v>
+        <v>0.004415452582785872</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6924,13 +6924,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>67.31</v>
+        <v>66.62</v>
       </c>
       <c r="C358" s="2">
-        <v>28764970359</v>
+        <v>27817024400</v>
       </c>
       <c r="D358" s="3">
-        <v>33.99155</v>
+        <v>0.02972377694088832</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6938,13 +6938,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>21.2</v>
+        <v>21.72</v>
       </c>
       <c r="C359" s="2">
-        <v>20017807601</v>
+        <v>20125885124</v>
       </c>
       <c r="D359" s="3">
-        <v>10.706</v>
+        <v>0.09116933792826797</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6952,13 +6952,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>437.4</v>
+        <v>435.61</v>
       </c>
       <c r="C360" s="2">
-        <v>25679678494</v>
+        <v>25000281004</v>
       </c>
       <c r="D360" s="3">
-        <v>220.887</v>
+        <v>0.004545804779050022</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6966,13 +6966,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>93.23999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C361" s="2">
-        <v>33974481500</v>
+        <v>33022875874</v>
       </c>
       <c r="D361" s="3">
-        <v>47.0862</v>
+        <v>0.02150052138764365</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6980,13 +6980,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>13.58</v>
+        <v>13.278</v>
       </c>
       <c r="C362" s="2">
-        <v>5790925450</v>
+        <v>5854473208</v>
       </c>
       <c r="D362" s="3">
-        <v>6.8579</v>
+        <v>0.1491337565749345</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6994,13 +6994,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>87.73999999999999</v>
+        <v>87.66</v>
       </c>
       <c r="C363" s="2">
-        <v>30137052286</v>
+        <v>30900016330</v>
       </c>
       <c r="D363" s="3">
-        <v>44.30869999999999</v>
+        <v>0.0225895279466345</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7008,13 +7008,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>30.477</v>
+        <v>31.03</v>
       </c>
       <c r="C364" s="2">
-        <v>16533287231</v>
+        <v>16612645956</v>
       </c>
       <c r="D364" s="3">
-        <v>15.390885</v>
+        <v>0.06381559844672834</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7022,13 +7022,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>57.181</v>
+        <v>56.81</v>
       </c>
       <c r="C365" s="2">
-        <v>28988992022</v>
+        <v>28909171577</v>
       </c>
       <c r="D365" s="3">
-        <v>28.876405</v>
+        <v>0.03485650448516071</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7036,13 +7036,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>147.03</v>
+        <v>146.4</v>
       </c>
       <c r="C366" s="2">
-        <v>202225436884</v>
+        <v>202963406568</v>
       </c>
       <c r="D366" s="3">
-        <v>74.25015</v>
+        <v>0.01352594275821025</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7050,13 +7050,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>42.38</v>
+        <v>42.86</v>
       </c>
       <c r="C367" s="2">
-        <v>238427608504</v>
+        <v>243983375997</v>
       </c>
       <c r="D367" s="3">
-        <v>21.4019</v>
+        <v>0.04620154035935558</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7064,13 +7064,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>50.17</v>
+        <v>50.81</v>
       </c>
       <c r="C368" s="2">
-        <v>13978323194</v>
+        <v>13754685146</v>
       </c>
       <c r="D368" s="3">
-        <v>25.33585</v>
+        <v>0.03897260420787207</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7078,13 +7078,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>139.29</v>
+        <v>141.4</v>
       </c>
       <c r="C369" s="2">
-        <v>341111857185</v>
+        <v>351268643706</v>
       </c>
       <c r="D369" s="3">
-        <v>70.34144999999999</v>
+        <v>0.01400422927724173</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7092,13 +7092,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>95</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="C370" s="2">
-        <v>54607912540</v>
+        <v>57392653264</v>
       </c>
       <c r="D370" s="3">
-        <v>47.975</v>
+        <v>0.02017522180134468</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7106,13 +7106,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>278.2</v>
+        <v>281.86</v>
       </c>
       <c r="C371" s="2">
-        <v>37224546792</v>
+        <v>36464089245</v>
       </c>
       <c r="D371" s="3">
-        <v>140.491</v>
+        <v>0.00702546661392883</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7120,13 +7120,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>42.53</v>
+        <v>42.49</v>
       </c>
       <c r="C372" s="2">
-        <v>11729638859</v>
+        <v>11799799324</v>
       </c>
       <c r="D372" s="3">
-        <v>21.47765</v>
+        <v>0.04660386019774018</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7134,13 +7134,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>142.005</v>
+        <v>141</v>
       </c>
       <c r="C373" s="2">
-        <v>13284850576</v>
+        <v>12854225002</v>
       </c>
       <c r="D373" s="3">
-        <v>71.712525</v>
+        <v>0.01404395758724809</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7148,13 +7148,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>150.85</v>
+        <v>152.75</v>
       </c>
       <c r="C374" s="2">
-        <v>17081925831</v>
+        <v>16342029359</v>
       </c>
       <c r="D374" s="3">
-        <v>76.17925</v>
+        <v>0.01296365315745977</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7162,13 +7162,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>97.273</v>
+        <v>98.56</v>
       </c>
       <c r="C375" s="2">
-        <v>74269643040</v>
+        <v>71691720449</v>
       </c>
       <c r="D375" s="3">
-        <v>49.122865</v>
+        <v>0.02009129484377009</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7176,13 +7176,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>87.79000000000001</v>
+        <v>87.331</v>
       </c>
       <c r="C376" s="2">
-        <v>134304676925</v>
+        <v>133711925750</v>
       </c>
       <c r="D376" s="3">
-        <v>44.33395</v>
+        <v>0.02267462893820041</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7190,13 +7190,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>145</v>
+        <v>147.64</v>
       </c>
       <c r="C377" s="2">
-        <v>60655713054</v>
+        <v>62553749304</v>
       </c>
       <c r="D377" s="3">
-        <v>73.22499999999999</v>
+        <v>0.01341234096316703</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7204,13 +7204,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>52.91</v>
+        <v>52.42</v>
       </c>
       <c r="C378" s="2">
-        <v>8877046587</v>
+        <v>8635483937</v>
       </c>
       <c r="D378" s="3">
-        <v>26.71955</v>
+        <v>0.03777562037012553</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7218,13 +7218,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>84.84999999999999</v>
+        <v>84.81</v>
       </c>
       <c r="C379" s="2">
-        <v>9110301703</v>
+        <v>9319799626</v>
       </c>
       <c r="D379" s="3">
-        <v>42.84925</v>
+        <v>0.0233486383657821</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7232,13 +7232,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>150.96</v>
+        <v>145.2</v>
       </c>
       <c r="C380" s="2">
-        <v>34536842784</v>
+        <v>34315241593</v>
       </c>
       <c r="D380" s="3">
-        <v>76.23480000000001</v>
+        <v>0.01363772740910455</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7246,13 +7246,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>29.38</v>
+        <v>28.863</v>
       </c>
       <c r="C381" s="2">
-        <v>22196738869</v>
+        <v>22461090162</v>
       </c>
       <c r="D381" s="3">
-        <v>14.8369</v>
+        <v>0.06860679831625195</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7260,13 +7260,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>49.74</v>
+        <v>50.92</v>
       </c>
       <c r="C382" s="2">
-        <v>6701377726</v>
+        <v>6732416582</v>
       </c>
       <c r="D382" s="3">
-        <v>25.1187</v>
+        <v>0.03888841358605617</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7274,13 +7274,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>81.33</v>
+        <v>82.98</v>
       </c>
       <c r="C383" s="2">
-        <v>32872748018</v>
+        <v>33018965957</v>
       </c>
       <c r="D383" s="3">
-        <v>41.07165</v>
+        <v>0.02386355772236659</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7288,13 +7288,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>226.75</v>
+        <v>218.52</v>
       </c>
       <c r="C384" s="2">
-        <v>38762573007</v>
+        <v>39540692881</v>
       </c>
       <c r="D384" s="3">
-        <v>114.50875</v>
+        <v>0.009061861705116145</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7302,13 +7302,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>72.78</v>
+        <v>72.801</v>
       </c>
       <c r="C385" s="2">
-        <v>31137290914</v>
+        <v>32184027563</v>
       </c>
       <c r="D385" s="3">
-        <v>36.7539</v>
+        <v>0.02720014862161207</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7316,13 +7316,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>95.02</v>
+        <v>98.58</v>
       </c>
       <c r="C386" s="2">
-        <v>6848713536</v>
+        <v>6975187218</v>
       </c>
       <c r="D386" s="3">
-        <v>47.9851</v>
+        <v>0.02008721870361108</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7330,13 +7330,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>73.38</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="C387" s="2">
-        <v>10481727165</v>
+        <v>10371321956</v>
       </c>
       <c r="D387" s="3">
-        <v>37.0569</v>
+        <v>0.02595619373183877</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7344,13 +7344,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>121.43</v>
+        <v>124.15</v>
       </c>
       <c r="C388" s="2">
-        <v>19742477574</v>
+        <v>20044958225</v>
       </c>
       <c r="D388" s="3">
-        <v>61.32215</v>
+        <v>0.01595004446074893</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7358,13 +7358,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>222.1</v>
+        <v>223.39</v>
       </c>
       <c r="C389" s="2">
-        <v>252593092143</v>
+        <v>263206907924</v>
       </c>
       <c r="D389" s="3">
-        <v>112.1605</v>
+        <v>0.008864309144554279</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7372,13 +7372,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>159.55</v>
+        <v>159.53</v>
       </c>
       <c r="C390" s="2">
-        <v>179161553442</v>
+        <v>183878900940</v>
       </c>
       <c r="D390" s="3">
-        <v>80.57275000000001</v>
+        <v>0.01241269992980618</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7386,13 +7386,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>160.92</v>
+        <v>163.71</v>
       </c>
       <c r="C391" s="2">
-        <v>18377147251</v>
+        <v>18247611144</v>
       </c>
       <c r="D391" s="3">
-        <v>81.2646</v>
+        <v>0.01209576702585047</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7400,13 +7400,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>85.23</v>
+        <v>81.602</v>
       </c>
       <c r="C392" s="2">
-        <v>18632502552</v>
+        <v>18175639020</v>
       </c>
       <c r="D392" s="3">
-        <v>43.04115</v>
+        <v>0.02426653782752849</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7414,13 +7414,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>246.99</v>
+        <v>242.96</v>
       </c>
       <c r="C393" s="2">
-        <v>9733530946</v>
+        <v>9651836529</v>
       </c>
       <c r="D393" s="3">
-        <v>124.72995</v>
+        <v>0.008150304658388131</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7428,13 +7428,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>49.128</v>
+        <v>49.69</v>
       </c>
       <c r="C394" s="2">
-        <v>8337739654</v>
+        <v>8120355119</v>
       </c>
       <c r="D394" s="3">
-        <v>24.80964</v>
+        <v>0.03985103682435058</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7442,13 +7442,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>502.7</v>
+        <v>493.708</v>
       </c>
       <c r="C395" s="2">
-        <v>51235358893</v>
+        <v>52012214154</v>
       </c>
       <c r="D395" s="3">
-        <v>253.8635</v>
+        <v>0.004010868812743524</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7456,13 +7456,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>16.4</v>
+        <v>16.16</v>
       </c>
       <c r="C396" s="2">
-        <v>15650285910</v>
+        <v>15877213432</v>
       </c>
       <c r="D396" s="3">
-        <v>8.282</v>
+        <v>0.1225370061758651</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7470,13 +7470,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>65.48</v>
+        <v>67.133</v>
       </c>
       <c r="C397" s="2">
-        <v>7385063431</v>
+        <v>7515815114</v>
       </c>
       <c r="D397" s="3">
-        <v>33.0674</v>
+        <v>0.02949664129119777</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7484,13 +7484,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>94.73999999999999</v>
+        <v>93.592</v>
       </c>
       <c r="C398" s="2">
-        <v>13123369826</v>
+        <v>12788433855</v>
       </c>
       <c r="D398" s="3">
-        <v>47.8437</v>
+        <v>0.02115777010644051</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7498,13 +7498,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>106.07</v>
+        <v>104.17</v>
       </c>
       <c r="C399" s="2">
-        <v>5180438886</v>
+        <v>5076951206</v>
       </c>
       <c r="D399" s="3">
-        <v>53.56535</v>
+        <v>0.01900929269273284</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7512,13 +7512,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>213.645</v>
+        <v>208.95</v>
       </c>
       <c r="C400" s="2">
-        <v>32132088138</v>
+        <v>30253758513</v>
       </c>
       <c r="D400" s="3">
-        <v>107.890725</v>
+        <v>0.009476898874381337</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7526,13 +7526,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>251.31</v>
+        <v>247.5</v>
       </c>
       <c r="C401" s="2">
-        <v>30039128825</v>
+        <v>29054453748</v>
       </c>
       <c r="D401" s="3">
-        <v>126.91155</v>
+        <v>0.008000800080008001</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7540,13 +7540,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>56.67</v>
+        <v>55.29</v>
       </c>
       <c r="C402" s="2">
-        <v>18399639660</v>
+        <v>18228040522</v>
       </c>
       <c r="D402" s="3">
-        <v>28.61835</v>
+        <v>0.03581475890399675</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7554,13 +7554,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>429.4</v>
+        <v>423.8</v>
       </c>
       <c r="C403" s="2">
-        <v>43856993782</v>
+        <v>44459682850</v>
       </c>
       <c r="D403" s="3">
-        <v>216.847</v>
+        <v>0.004672482349697924</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7568,13 +7568,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>114.54</v>
+        <v>113.62</v>
       </c>
       <c r="C404" s="2">
-        <v>41010385634</v>
+        <v>42376319186</v>
       </c>
       <c r="D404" s="3">
-        <v>57.8427</v>
+        <v>0.01742825224258036</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7582,13 +7582,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>94.93000000000001</v>
+        <v>94.08</v>
       </c>
       <c r="C405" s="2">
-        <v>30987305452</v>
+        <v>30177450458</v>
       </c>
       <c r="D405" s="3">
-        <v>47.93965</v>
+        <v>0.02104802316966391</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7596,13 +7596,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>73.90000000000001</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="C406" s="2">
-        <v>115837531018</v>
+        <v>113890249975</v>
       </c>
       <c r="D406" s="3">
-        <v>37.31950000000001</v>
+        <v>0.02712228488976825</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7610,13 +7610,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>275.26</v>
+        <v>286.4</v>
       </c>
       <c r="C407" s="2">
-        <v>31375312780</v>
+        <v>31732987804</v>
       </c>
       <c r="D407" s="3">
-        <v>139.0063</v>
+        <v>0.006914099231152166</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7624,13 +7624,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>109.18</v>
+        <v>109.52</v>
       </c>
       <c r="C408" s="2">
-        <v>125403181477</v>
+        <v>125310846170</v>
       </c>
       <c r="D408" s="3">
-        <v>55.13590000000001</v>
+        <v>0.01808069777028835</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7638,13 +7638,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>51.573</v>
+        <v>51.27</v>
       </c>
       <c r="C409" s="2">
-        <v>93405507051</v>
+        <v>92905438023</v>
       </c>
       <c r="D409" s="3">
-        <v>26.044365</v>
+        <v>0.03862293777651609</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7652,13 +7652,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>46.44</v>
+        <v>46.9</v>
       </c>
       <c r="C410" s="2">
-        <v>7104285162</v>
+        <v>7067307329</v>
       </c>
       <c r="D410" s="3">
-        <v>23.4522</v>
+        <v>0.0422217061791467</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7666,13 +7666,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>725.59</v>
+        <v>723.7</v>
       </c>
       <c r="C411" s="2">
-        <v>67999929007</v>
+        <v>67501501836</v>
       </c>
       <c r="D411" s="3">
-        <v>366.42295</v>
+        <v>0.002736213928149758</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7680,13 +7680,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>357.82</v>
+        <v>370.33</v>
       </c>
       <c r="C412" s="2">
-        <v>18765051017</v>
+        <v>19252856364</v>
       </c>
       <c r="D412" s="3">
-        <v>180.6991</v>
+        <v>0.005347117489271677</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7694,13 +7694,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>121.73</v>
+        <v>121</v>
       </c>
       <c r="C413" s="2">
-        <v>13628724457</v>
+        <v>13530972100</v>
       </c>
       <c r="D413" s="3">
-        <v>61.47365</v>
+        <v>0.01636527289092546</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7708,13 +7708,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>24.06</v>
+        <v>24.71</v>
       </c>
       <c r="C414" s="2">
-        <v>33375608875</v>
+        <v>34428038065</v>
       </c>
       <c r="D414" s="3">
-        <v>12.1503</v>
+        <v>0.08013751597741725</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7722,13 +7722,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>61.8</v>
+        <v>62.57</v>
       </c>
       <c r="C415" s="2">
-        <v>4479014338</v>
+        <v>4761349807</v>
       </c>
       <c r="D415" s="3">
-        <v>31.209</v>
+        <v>0.0316477228672204</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7736,13 +7736,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>186.8</v>
+        <v>184.954</v>
       </c>
       <c r="C416" s="2">
-        <v>9958794994</v>
+        <v>9944674827</v>
       </c>
       <c r="D416" s="3">
-        <v>94.334</v>
+        <v>0.01070643522066016</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7750,13 +7750,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>244.81</v>
+        <v>237.64</v>
       </c>
       <c r="C417" s="2">
-        <v>35789026349</v>
+        <v>36030285223</v>
       </c>
       <c r="D417" s="3">
-        <v>123.62905</v>
+        <v>0.008332763927798267</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7764,13 +7764,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>62.938</v>
+        <v>62.8</v>
       </c>
       <c r="C418" s="2">
-        <v>66818084611</v>
+        <v>65401152671</v>
       </c>
       <c r="D418" s="3">
-        <v>31.78369</v>
+        <v>0.03153181560194236</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7778,13 +7778,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>93.247</v>
+        <v>90.89</v>
       </c>
       <c r="C419" s="2">
-        <v>30533016143</v>
+        <v>30965426138</v>
       </c>
       <c r="D419" s="3">
-        <v>47.089735</v>
+        <v>0.02178675343604335</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7792,13 +7792,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>329.66</v>
+        <v>334.44</v>
       </c>
       <c r="C420" s="2">
-        <v>79002553971</v>
+        <v>82067125846</v>
       </c>
       <c r="D420" s="3">
-        <v>166.4783</v>
+        <v>0.005920936550059742</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7806,13 +7806,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>132.11</v>
+        <v>130.65</v>
       </c>
       <c r="C421" s="2">
-        <v>37429999370</v>
+        <v>38522005661</v>
       </c>
       <c r="D421" s="3">
-        <v>66.71555000000001</v>
+        <v>0.01515650991046292</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7820,13 +7820,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>197.01</v>
+        <v>194.779</v>
       </c>
       <c r="C422" s="2">
-        <v>16431056792</v>
+        <v>16927631939</v>
       </c>
       <c r="D422" s="3">
-        <v>99.49005</v>
+        <v>0.01016638354135703</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7834,13 +7834,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>73.864</v>
+        <v>74.49299999999999</v>
       </c>
       <c r="C423" s="2">
-        <v>25960075646</v>
+        <v>26296798074</v>
       </c>
       <c r="D423" s="3">
-        <v>37.30132</v>
+        <v>0.02658233686120817</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7848,13 +7848,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>64.34</v>
+        <v>68.03</v>
       </c>
       <c r="C424" s="2">
-        <v>16768211917</v>
+        <v>17119603233</v>
       </c>
       <c r="D424" s="3">
-        <v>32.4917</v>
+        <v>0.02910771747467265</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7862,13 +7862,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>210.64</v>
+        <v>217.74</v>
       </c>
       <c r="C425" s="2">
-        <v>42030165530</v>
+        <v>40054878547</v>
       </c>
       <c r="D425" s="3">
-        <v>106.3732</v>
+        <v>0.009094323596041058</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7876,13 +7876,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>182.952</v>
+        <v>182.85</v>
       </c>
       <c r="C426" s="2">
-        <v>28537873284</v>
+        <v>29557834192</v>
       </c>
       <c r="D426" s="3">
-        <v>92.39076</v>
+        <v>0.01082963095325119</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7890,13 +7890,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>154.44</v>
+        <v>150.72</v>
       </c>
       <c r="C427" s="2">
-        <v>24821240282</v>
+        <v>24463592861</v>
       </c>
       <c r="D427" s="3">
-        <v>77.9922</v>
+        <v>0.01313825650080932</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7904,13 +7904,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>33.686</v>
+        <v>33.45</v>
       </c>
       <c r="C428" s="2">
-        <v>19511502661</v>
+        <v>19735997558</v>
       </c>
       <c r="D428" s="3">
-        <v>17.01143</v>
+        <v>0.05919874498660628</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7918,13 +7918,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>237.72</v>
+        <v>245</v>
       </c>
       <c r="C429" s="2">
-        <v>91071633326</v>
+        <v>89394120615</v>
       </c>
       <c r="D429" s="3">
-        <v>120.0486</v>
+        <v>0.00808244089715094</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7932,13 +7932,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>76.38</v>
+        <v>77.84</v>
       </c>
       <c r="C430" s="2">
-        <v>40086696374</v>
+        <v>40336356332</v>
       </c>
       <c r="D430" s="3">
-        <v>38.5719</v>
+        <v>0.02543933735614055</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7946,13 +7946,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>30.81</v>
+        <v>31.72</v>
       </c>
       <c r="C431" s="2">
-        <v>226454810956</v>
+        <v>227275317952</v>
       </c>
       <c r="D431" s="3">
-        <v>15.55905</v>
+        <v>0.06242742811481652</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7960,13 +7960,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>48.96</v>
+        <v>50.72</v>
       </c>
       <c r="C432" s="2">
-        <v>9865583446</v>
+        <v>10318650347</v>
       </c>
       <c r="D432" s="3">
-        <v>24.7248</v>
+        <v>0.03904175906549646</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7974,13 +7974,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>615.649</v>
+        <v>615.9400000000001</v>
       </c>
       <c r="C433" s="2">
-        <v>33561307728</v>
+        <v>33971155038</v>
       </c>
       <c r="D433" s="3">
-        <v>310.902745</v>
+        <v>0.003214920316592493</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7988,13 +7988,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>403.39</v>
+        <v>400.32</v>
       </c>
       <c r="C434" s="2">
-        <v>15199079605</v>
+        <v>14867472071</v>
       </c>
       <c r="D434" s="3">
-        <v>203.71195</v>
+        <v>0.004946537819249551</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -8002,13 +8002,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>124.1</v>
+        <v>119.58</v>
       </c>
       <c r="C435" s="2">
-        <v>40938322284</v>
+        <v>41095858648</v>
       </c>
       <c r="D435" s="3">
-        <v>62.6705</v>
+        <v>0.01655960879580181</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8016,13 +8016,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>49.1</v>
+        <v>48.019</v>
       </c>
       <c r="C436" s="2">
-        <v>66209616299</v>
+        <v>67313212829</v>
       </c>
       <c r="D436" s="3">
-        <v>24.7955</v>
+        <v>0.04123780211587039</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8030,13 +8030,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>394.551</v>
+        <v>397.937</v>
       </c>
       <c r="C437" s="2">
-        <v>18859916928</v>
+        <v>17869001488</v>
       </c>
       <c r="D437" s="3">
-        <v>199.248255</v>
+        <v>0.004976159592603805</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8044,13 +8044,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>174.9</v>
+        <v>180.09</v>
       </c>
       <c r="C438" s="2">
-        <v>90516836922</v>
+        <v>86368368841</v>
       </c>
       <c r="D438" s="3">
-        <v>88.3245</v>
+        <v>0.01099560230885657</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8058,13 +8058,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>131.603</v>
+        <v>136.839</v>
       </c>
       <c r="C439" s="2">
-        <v>16321870509</v>
+        <v>16309254774</v>
       </c>
       <c r="D439" s="3">
-        <v>66.45951500000001</v>
+        <v>0.01447100621754018</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8072,13 +8072,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>68.39</v>
+        <v>69.73999999999999</v>
       </c>
       <c r="C440" s="2">
-        <v>82945659455</v>
+        <v>82725253433</v>
       </c>
       <c r="D440" s="3">
-        <v>34.53695</v>
+        <v>0.02839400659308833</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8086,13 +8086,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>471.09</v>
+        <v>487.06</v>
       </c>
       <c r="C441" s="2">
-        <v>195347043723</v>
+        <v>191338210030</v>
       </c>
       <c r="D441" s="3">
-        <v>237.90045</v>
+        <v>0.004065614133375724</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8100,13 +8100,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>136.11</v>
+        <v>133.67</v>
       </c>
       <c r="C442" s="2">
-        <v>163606736506</v>
+        <v>166780336995</v>
       </c>
       <c r="D442" s="3">
-        <v>68.73555</v>
+        <v>0.01481407959753109</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8114,13 +8114,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>29.64</v>
+        <v>29.8</v>
       </c>
       <c r="C443" s="2">
-        <v>8180487054</v>
+        <v>8419191825</v>
       </c>
       <c r="D443" s="3">
-        <v>14.9682</v>
+        <v>0.06644959797993222</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8128,13 +8128,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>151.39</v>
+        <v>148.32</v>
       </c>
       <c r="C444" s="2">
-        <v>33860218856</v>
+        <v>35013107347</v>
       </c>
       <c r="D444" s="3">
-        <v>76.45195</v>
+        <v>0.0133508496480716</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8142,13 +8142,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>139.05</v>
+        <v>142.08</v>
       </c>
       <c r="C445" s="2">
-        <v>34716157684</v>
+        <v>34905306601</v>
       </c>
       <c r="D445" s="3">
-        <v>70.22025000000001</v>
+        <v>0.01393720453126394</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8156,13 +8156,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>139.627</v>
+        <v>139.37</v>
       </c>
       <c r="C446" s="2">
-        <v>15749949449</v>
+        <v>16539634265</v>
       </c>
       <c r="D446" s="3">
-        <v>70.51163500000001</v>
+        <v>0.0142082085083015</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8170,13 +8170,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>70.27</v>
+        <v>71.456</v>
       </c>
       <c r="C447" s="2">
-        <v>20734444267</v>
+        <v>21410073658</v>
       </c>
       <c r="D447" s="3">
-        <v>35.48635</v>
+        <v>0.02771213081899323</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8184,13 +8184,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>144.341</v>
+        <v>143.53</v>
       </c>
       <c r="C448" s="2">
-        <v>33845923111</v>
+        <v>33890003222</v>
       </c>
       <c r="D448" s="3">
-        <v>72.892205</v>
+        <v>0.01379640507073072</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8198,13 +8198,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>192.7</v>
+        <v>190.25</v>
       </c>
       <c r="C449" s="2">
-        <v>21930427667</v>
+        <v>21928526395</v>
       </c>
       <c r="D449" s="3">
-        <v>97.31349999999999</v>
+        <v>0.01040839957845982</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8212,13 +8212,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>49.93</v>
+        <v>52.86</v>
       </c>
       <c r="C450" s="2">
-        <v>38548779141</v>
+        <v>42791000649</v>
       </c>
       <c r="D450" s="3">
-        <v>25.21465</v>
+        <v>0.0374611808513428</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8226,13 +8226,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>166.84</v>
+        <v>164.58</v>
       </c>
       <c r="C451" s="2">
-        <v>150533026472</v>
+        <v>149124028314</v>
       </c>
       <c r="D451" s="3">
-        <v>84.2542</v>
+        <v>0.01203182658768976</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8240,13 +8240,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>49.126</v>
+        <v>48.29</v>
       </c>
       <c r="C452" s="2">
-        <v>11255957443</v>
+        <v>11546700787</v>
       </c>
       <c r="D452" s="3">
-        <v>24.80863</v>
+        <v>0.04100637854218224</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8254,13 +8254,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>467.75</v>
+        <v>457.837</v>
       </c>
       <c r="C453" s="2">
-        <v>18770193668</v>
+        <v>18692804316</v>
       </c>
       <c r="D453" s="3">
-        <v>236.21375</v>
+        <v>0.00432511575036963</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8268,13 +8268,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>15.39</v>
+        <v>15.6</v>
       </c>
       <c r="C454" s="2">
-        <v>6846119587</v>
+        <v>6885015603</v>
       </c>
       <c r="D454" s="3">
-        <v>7.77195</v>
+        <v>0.1269357705001269</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8282,13 +8282,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>17.33</v>
+        <v>18.216</v>
       </c>
       <c r="C455" s="2">
-        <v>6926157953</v>
+        <v>7110749385</v>
       </c>
       <c r="D455" s="3">
-        <v>8.75165</v>
+        <v>0.1087065228261957</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8296,13 +8296,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>49.62</v>
+        <v>50.643</v>
       </c>
       <c r="C456" s="2">
-        <v>14387460093</v>
+        <v>14958827225</v>
       </c>
       <c r="D456" s="3">
-        <v>25.0581</v>
+        <v>0.03910111999293052</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8310,13 +8310,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>39.35</v>
+        <v>39.16</v>
       </c>
       <c r="C457" s="2">
-        <v>11785534295</v>
+        <v>11655837230</v>
       </c>
       <c r="D457" s="3">
-        <v>19.87175</v>
+        <v>0.05056685443825282</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8324,13 +8324,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>136.958</v>
+        <v>137.12</v>
       </c>
       <c r="C458" s="2">
-        <v>10758102615</v>
+        <v>10800599264</v>
       </c>
       <c r="D458" s="3">
-        <v>69.16379000000001</v>
+        <v>0.01444135078618714</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8338,13 +8338,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>282.27</v>
+        <v>279.438</v>
       </c>
       <c r="C459" s="2">
-        <v>16060097942</v>
+        <v>15679294103</v>
       </c>
       <c r="D459" s="3">
-        <v>142.54635</v>
+        <v>0.007086359120098126</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8352,13 +8352,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>348.55</v>
+        <v>346.47</v>
       </c>
       <c r="C460" s="2">
-        <v>331664427510</v>
+        <v>323147840188</v>
       </c>
       <c r="D460" s="3">
-        <v>176.01775</v>
+        <v>0.005715352035679799</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8366,13 +8366,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>24.33</v>
+        <v>24.457</v>
       </c>
       <c r="C461" s="2">
-        <v>4940961413</v>
+        <v>4863198641</v>
       </c>
       <c r="D461" s="3">
-        <v>12.28665</v>
+        <v>0.08096651346452877</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8380,13 +8380,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>210.8</v>
+        <v>207.16</v>
       </c>
       <c r="C462" s="2">
-        <v>138879947371</v>
+        <v>139431512866</v>
       </c>
       <c r="D462" s="3">
-        <v>106.454</v>
+        <v>0.009558785575410216</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8394,13 +8394,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>170</v>
+        <v>172.24</v>
       </c>
       <c r="C463" s="2">
-        <v>120920643962</v>
+        <v>119986606132</v>
       </c>
       <c r="D463" s="3">
-        <v>85.84999999999999</v>
+        <v>0.01149673722597527</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8408,13 +8408,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>247.96</v>
+        <v>244.03</v>
       </c>
       <c r="C464" s="2">
-        <v>18373195376</v>
+        <v>17813134619</v>
       </c>
       <c r="D464" s="3">
-        <v>125.2198</v>
+        <v>0.008114567962143918</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8422,13 +8422,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>46.571</v>
+        <v>46.56</v>
       </c>
       <c r="C465" s="2">
-        <v>69403086504</v>
+        <v>72653007807</v>
       </c>
       <c r="D465" s="3">
-        <v>23.518355</v>
+        <v>0.04253002619849613</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8436,13 +8436,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>211.97</v>
+        <v>213.64</v>
       </c>
       <c r="C466" s="2">
-        <v>451079922407</v>
+        <v>457684657266</v>
       </c>
       <c r="D466" s="3">
-        <v>107.04485</v>
+        <v>0.009268854239851996</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8450,13 +8450,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>177.82</v>
+        <v>183.2</v>
       </c>
       <c r="C467" s="2">
-        <v>16745039325</v>
+        <v>16653878290</v>
       </c>
       <c r="D467" s="3">
-        <v>89.7991</v>
+        <v>0.01080894115612435</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8464,13 +8464,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>90.01000000000001</v>
+        <v>91.61199999999999</v>
       </c>
       <c r="C468" s="2">
-        <v>35504744502</v>
+        <v>35178550585</v>
       </c>
       <c r="D468" s="3">
-        <v>45.45505</v>
+        <v>0.02161505064622517</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8478,13 +8478,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>37.36</v>
+        <v>37.002</v>
       </c>
       <c r="C469" s="2">
-        <v>22567839135</v>
+        <v>22618315303</v>
       </c>
       <c r="D469" s="3">
-        <v>18.8668</v>
+        <v>0.05351597264477542</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8492,13 +8492,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>61.57</v>
+        <v>60.99</v>
       </c>
       <c r="C470" s="2">
-        <v>25924207198</v>
+        <v>24480617652</v>
       </c>
       <c r="D470" s="3">
-        <v>31.09285</v>
+        <v>0.03246758517465126</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8506,13 +8506,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>141.013</v>
+        <v>141.566</v>
       </c>
       <c r="C471" s="2">
-        <v>18691839737</v>
+        <v>18604769470</v>
       </c>
       <c r="D471" s="3">
-        <v>71.21156500000001</v>
+        <v>0.01398780794683738</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8520,13 +8520,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>40.8</v>
+        <v>40.92</v>
       </c>
       <c r="C472" s="2">
-        <v>7757543873</v>
+        <v>7891958802</v>
       </c>
       <c r="D472" s="3">
-        <v>20.604</v>
+        <v>0.04839193596779032</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8534,13 +8534,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>195.52</v>
+        <v>192.7</v>
       </c>
       <c r="C473" s="2">
-        <v>32726225713</v>
+        <v>32580265851</v>
       </c>
       <c r="D473" s="3">
-        <v>98.7376</v>
+        <v>0.0102760665272547</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8548,13 +8548,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>213.03</v>
+        <v>216.093</v>
       </c>
       <c r="C474" s="2">
-        <v>24411037678</v>
+        <v>24706578646</v>
       </c>
       <c r="D474" s="3">
-        <v>107.58015</v>
+        <v>0.009163637969772183</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8562,13 +8562,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>229.11</v>
+        <v>230.77</v>
       </c>
       <c r="C475" s="2">
-        <v>60243021748</v>
+        <v>59056778825</v>
       </c>
       <c r="D475" s="3">
-        <v>115.70055</v>
+        <v>0.008580829483043636</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8576,13 +8576,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>50.14</v>
+        <v>49.15</v>
       </c>
       <c r="C476" s="2">
-        <v>19338021019</v>
+        <v>18996103854</v>
       </c>
       <c r="D476" s="3">
-        <v>25.3207</v>
+        <v>0.04028887120655097</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8590,13 +8590,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>62.26</v>
+        <v>62.656</v>
       </c>
       <c r="C477" s="2">
-        <v>253357750616</v>
+        <v>257256142169</v>
       </c>
       <c r="D477" s="3">
-        <v>31.4413</v>
+        <v>0.03160428402390801</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8604,13 +8604,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>77.69</v>
+        <v>76.45</v>
       </c>
       <c r="C478" s="2">
-        <v>15108241920</v>
+        <v>14409442955</v>
       </c>
       <c r="D478" s="3">
-        <v>39.23345</v>
+        <v>0.02590187076261583</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8618,13 +8618,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>245.7</v>
+        <v>246.154</v>
       </c>
       <c r="C479" s="2">
-        <v>15032142929</v>
+        <v>15615584957</v>
       </c>
       <c r="D479" s="3">
-        <v>124.0785</v>
+        <v>0.008044549427602153</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8632,13 +8632,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>42.04</v>
+        <v>41.983</v>
       </c>
       <c r="C480" s="2">
-        <v>36336523049</v>
+        <v>37297325582</v>
       </c>
       <c r="D480" s="3">
-        <v>21.2302</v>
+        <v>0.04716666316847248</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8646,13 +8646,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>52.715</v>
+        <v>54.1</v>
       </c>
       <c r="C481" s="2">
-        <v>15961301763</v>
+        <v>16021844567</v>
       </c>
       <c r="D481" s="3">
-        <v>26.621075</v>
+        <v>0.03660255119781849</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8660,13 +8660,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>92.5</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="C482" s="2">
-        <v>29280770020</v>
+        <v>29158535048</v>
       </c>
       <c r="D482" s="3">
-        <v>46.7125</v>
+        <v>0.02113112815923573</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8674,13 +8674,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>64.53</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C483" s="2">
-        <v>28158323049</v>
+        <v>27207654831</v>
       </c>
       <c r="D483" s="3">
-        <v>32.58765</v>
+        <v>0.02995760998187565</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8688,13 +8688,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>30.24</v>
+        <v>29.87</v>
       </c>
       <c r="C484" s="2">
-        <v>125952238839</v>
+        <v>122136870197</v>
       </c>
       <c r="D484" s="3">
-        <v>15.2712</v>
+        <v>0.06629387411456245</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8702,13 +8702,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>185.7</v>
+        <v>188.74</v>
       </c>
       <c r="C485" s="2">
-        <v>11791917004</v>
+        <v>11560927158</v>
       </c>
       <c r="D485" s="3">
-        <v>93.77849999999999</v>
+        <v>0.01049167118682834</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8716,13 +8716,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>208.426</v>
+        <v>216.13</v>
       </c>
       <c r="C486" s="2">
-        <v>27911786462</v>
+        <v>27349601769</v>
       </c>
       <c r="D486" s="3">
-        <v>105.25513</v>
+        <v>0.009162069216684311</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8730,13 +8730,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>117.61</v>
+        <v>118.19</v>
       </c>
       <c r="C487" s="2">
-        <v>50180797909</v>
+        <v>50350417275</v>
       </c>
       <c r="D487" s="3">
-        <v>59.39305</v>
+        <v>0.01675436178866216</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8744,13 +8744,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>22.48</v>
+        <v>22.656</v>
       </c>
       <c r="C488" s="2">
-        <v>27805026743</v>
+        <v>27920146910</v>
       </c>
       <c r="D488" s="3">
-        <v>11.3524</v>
+        <v>0.08740280807741792</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8758,13 +8758,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>153.74</v>
+        <v>152.639</v>
       </c>
       <c r="C489" s="2">
-        <v>417351296664</v>
+        <v>426509219243</v>
       </c>
       <c r="D489" s="3">
-        <v>77.6387</v>
+        <v>0.01297308040410367</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8772,13 +8772,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>67.59999999999999</v>
+        <v>66.83499999999999</v>
       </c>
       <c r="C490" s="2">
-        <v>11823632148</v>
+        <v>11750258376</v>
       </c>
       <c r="D490" s="3">
-        <v>34.138</v>
+        <v>0.02962815919506217</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8786,13 +8786,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>44.548</v>
+        <v>45.4</v>
       </c>
       <c r="C491" s="2">
-        <v>12066612583</v>
+        <v>11894134444</v>
       </c>
       <c r="D491" s="3">
-        <v>22.49674</v>
+        <v>0.04361669647140926</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8800,13 +8800,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>269.95</v>
+        <v>276.08</v>
       </c>
       <c r="C492" s="2">
-        <v>20001575313</v>
+        <v>19962944424</v>
       </c>
       <c r="D492" s="3">
-        <v>136.32475</v>
+        <v>0.007172551506092366</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8814,13 +8814,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>21.957</v>
+        <v>22.38</v>
       </c>
       <c r="C493" s="2">
-        <v>8989019004</v>
+        <v>9448496481</v>
       </c>
       <c r="D493" s="3">
-        <v>11.088285</v>
+        <v>0.08848069793574533</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8828,13 +8828,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>32.95</v>
+        <v>32.47</v>
       </c>
       <c r="C494" s="2">
-        <v>24500525425</v>
+        <v>23654461144</v>
       </c>
       <c r="D494" s="3">
-        <v>16.63975</v>
+        <v>0.06098546411462828</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8842,13 +8842,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>116.65</v>
+        <v>118.04</v>
       </c>
       <c r="C495" s="2">
-        <v>12242902332</v>
+        <v>12413745565</v>
       </c>
       <c r="D495" s="3">
-        <v>58.90825</v>
+        <v>0.01677565248900356</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8856,13 +8856,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>68.17</v>
+        <v>65.396</v>
       </c>
       <c r="C496" s="2">
-        <v>35148310732</v>
+        <v>35442990151</v>
       </c>
       <c r="D496" s="3">
-        <v>34.42585</v>
+        <v>0.03028010917796165</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8870,13 +8870,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>148.4</v>
+        <v>150.163</v>
       </c>
       <c r="C497" s="2">
-        <v>36870129424</v>
+        <v>35893528401</v>
       </c>
       <c r="D497" s="3">
-        <v>74.94200000000001</v>
+        <v>0.01318699026925394</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8884,13 +8884,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>44.982</v>
+        <v>44</v>
       </c>
       <c r="C498" s="2">
-        <v>194531077967</v>
+        <v>187328145058</v>
       </c>
       <c r="D498" s="3">
-        <v>22.71591</v>
+        <v>0.045004500450045</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8898,13 +8898,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>55.41</v>
+        <v>55.492</v>
       </c>
       <c r="C499" s="2">
-        <v>12295210283</v>
+        <v>12208605406</v>
       </c>
       <c r="D499" s="3">
-        <v>27.98205</v>
+        <v>0.0356843872955017</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8912,13 +8912,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>23.377</v>
+        <v>23.1</v>
       </c>
       <c r="C500" s="2">
-        <v>4502768619</v>
+        <v>4621230842</v>
       </c>
       <c r="D500" s="3">
-        <v>11.805385</v>
+        <v>0.08572285800008572</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8926,13 +8926,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>99.54900000000001</v>
+        <v>98.53</v>
       </c>
       <c r="C501" s="2">
-        <v>17719020388</v>
+        <v>18414690438</v>
       </c>
       <c r="D501" s="3">
-        <v>50.27224500000001</v>
+        <v>0.02009741215672364</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8940,13 +8940,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>106.82</v>
+        <v>107.072</v>
       </c>
       <c r="C502" s="2">
-        <v>32995286560</v>
+        <v>32502664051</v>
       </c>
       <c r="D502" s="3">
-        <v>53.9441</v>
+        <v>0.01849407893568795</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8954,13 +8954,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>148.947</v>
+        <v>152.44</v>
       </c>
       <c r="C503" s="2">
-        <v>30869424988</v>
+        <v>31195405941</v>
       </c>
       <c r="D503" s="3">
-        <v>75.21823500000001</v>
+        <v>0.0129900158737994</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8968,13 +8968,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>393.8</v>
+        <v>392.23</v>
       </c>
       <c r="C504" s="2">
-        <v>20165409359</v>
+        <v>20767013606</v>
       </c>
       <c r="D504" s="3">
-        <v>198.869</v>
+        <v>0.005048563393422176</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8982,13 +8982,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="2">
-        <v>43.52</v>
+        <v>43.641</v>
       </c>
       <c r="C505" s="2">
-        <v>7103332233</v>
+        <v>7030311574</v>
       </c>
       <c r="D505" s="3">
-        <v>21.9776</v>
+        <v>0.0453747168901258</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8996,13 +8996,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="2">
-        <v>160.33</v>
+        <v>164.91</v>
       </c>
       <c r="C506" s="2">
-        <v>79751667828</v>
+        <v>77298643779</v>
       </c>
       <c r="D506" s="3">
-        <v>80.96665</v>
+        <v>0.01200774980172203</v>
       </c>
     </row>
   </sheetData>
